--- a/TA buku/Results/Categorization/output.xlsx
+++ b/TA buku/Results/Categorization/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="1426">
   <si>
     <t>id</t>
   </si>
@@ -3139,385 +3139,28 @@
     <t>SERVICE,SERVICE,AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD||FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD||AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES||PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE||AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE||FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|FOOD|FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|FOOD|FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE||FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD||SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
+    <t>||</t>
+  </si>
+  <si>
+    <t>||||</t>
+  </si>
+  <si>
+    <t>|||</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>|||||</t>
+  </si>
+  <si>
+    <t>|||||||</t>
+  </si>
+  <si>
+    <t>|||||||||</t>
+  </si>
+  <si>
+    <t>||||||</t>
   </si>
   <si>
     <t>list!interesting|wine!interesting|values!many</t>
@@ -3526,7 +3169,7 @@
     <t>|price!beat</t>
   </si>
   <si>
-    <t>advanatage!worth|half!worth|price!worth|sushi!worth|deal!worth|saturday!worth</t>
+    <t>advanatage!worth|half!worth|price!worth|sushi!worth|deal!worth</t>
   </si>
   <si>
     <t>menu!worth|prix!worth|fixe!worth|penny!more</t>
@@ -3535,7 +3178,7 @@
     <t>food!fresh</t>
   </si>
   <si>
-    <t>service!great|food!great|price!reasonable|beginning!great|evening!service</t>
+    <t>service!great|food!great|price!reasonable|beginning!great</t>
   </si>
   <si>
     <t>pizza!soggy</t>
@@ -3601,7 +3244,7 @@
     <t>prices!cheap|quality!prices</t>
   </si>
   <si>
-    <t>|prices!mortal|gods!mortal|years!last|secret!last</t>
+    <t>|prices!mortal|gods!mortal|secret!last</t>
   </si>
   <si>
     <t>everytime!exceptional|food!exceptional|service!food|value!food</t>
@@ -3676,10 +3319,10 @@
     <t>food!reliable|price!moderate</t>
   </si>
   <si>
-    <t>shanty!recommend|vanilla!recommend|setting!great|music!great|mmmm!shanty</t>
-  </si>
-  <si>
-    <t>location!good|college!near|hutner!near|fact!location|prices!reasonable</t>
+    <t>shanty!recommend|vanilla!recommend|mmmm!shanty</t>
+  </si>
+  <si>
+    <t>location!good|fact!location|prices!reasonable</t>
   </si>
   <si>
     <t>rest!worth|sum!worth</t>
@@ -3739,7 +3382,7 @@
     <t>price!-|quality!-|fish!-|return!-|visit!-</t>
   </si>
   <si>
-    <t>decor!fabulous|manhattan!trendy|restaurant!trendy|food!trendy|staff!restaurant|manhattanite!restaurant|side!soho/village/upper|west!soho/village/upper|prices!side|avenue!restaurant|clientele!pretentious|clientele!soho/village/upper</t>
+    <t>decor!fabulous|restaurant!trendy|food!trendy|staff!restaurant|manhattanite!restaurant|side!soho/village/upper|west!soho/village/upper|prices!side|clientele!pretentious|clientele!soho/village/upper</t>
   </si>
   <si>
     <t>restaurants!good|uws!good|food!overpriced|wait-staff!overpriced|service!clumsy|diner!clumsy|management!diner</t>
@@ -3751,7 +3394,7 @@
     <t>prices!mediocre|food!okay</t>
   </si>
   <si>
-    <t>food!solid|decor!solid|prices!reasonable|prices!nice|baluchi!food</t>
+    <t>food!solid|decor!solid|prices!reasonable|prices!nice</t>
   </si>
   <si>
     <t>sushi!-</t>
@@ -3772,7 +3415,7 @@
     <t>food!overpriced|service!overpriced</t>
   </si>
   <si>
-    <t>dinner!-|manhattan!-|feet!-</t>
+    <t>dinner!-|feet!-</t>
   </si>
   <si>
     <t>guacamole!bland|plate!bland</t>
@@ -3823,13 +3466,13 @@
     <t>restaurant!expensive</t>
   </si>
   <si>
-    <t>|restaurants!new|landmark!new|city!new</t>
+    <t>|restaurants!new|landmark!new</t>
   </si>
   <si>
     <t>|service!ok</t>
   </si>
   <si>
-    <t>home!necessary|visit!necessary|casa!necessary|la!necessary|femme!necessary|visit!necessary|diners!necessary|money!necessary|time!necessary</t>
+    <t>home!necessary|visit!necessary|visit!necessary|diners!necessary|money!necessary|time!necessary</t>
   </si>
   <si>
     <t>drinks!horrible</t>
@@ -3862,7 +3505,7 @@
     <t>stone!bad|bowl!bad</t>
   </si>
   <si>
-    <t>deal!wonderful|bbe!wonderful|party!bbe</t>
+    <t>deal!wonderful|party!bbe</t>
   </si>
   <si>
     <t>company!great|date!super|point!super|price!super|things!date|brasserie!good</t>
@@ -3877,7 +3520,7 @@
     <t>food!good|price!high</t>
   </si>
   <si>
-    <t>bite!fishy|salmon!fishy|salmon!fishy|years!fishy|restaurants!fishy|salmon!fishy|salmon!fishy|flatbush!fishy|farms!fishy</t>
+    <t>bite!fishy|salmon!fishy|salmon!fishy|restaurants!fishy|salmon!fishy|salmon!fishy</t>
   </si>
   <si>
     <t>eggplant!cold</t>
@@ -3913,7 +3556,7 @@
     <t>cart!ive|attendant!ive|lotus!ive|leaf!ive|rice!ive|rice!ive|rice!ive|rice!ive</t>
   </si>
   <si>
-    <t>mai!greasy|pork!greasy|fun!dry|chow!dry|family!loud|shu!greasy</t>
+    <t>mai!greasy|pork!greasy|fun!dry|family!loud|shu!greasy</t>
   </si>
   <si>
     <t>service!excellent|perfection!service</t>
@@ -3976,7 +3619,7 @@
     <t>somosas!dissapointing|chai!dissapointing|chole!dissapointing|dhosas!dissapointing|dhal!dissapointing</t>
   </si>
   <si>
-    <t>service!nice|varys!nice|day!nice|day!nice|day!nice|day!nice</t>
+    <t>service!nice|varys!nice</t>
   </si>
   <si>
     <t>kitchen!slow</t>
@@ -3988,7 +3631,7 @@
     <t>ambience!nice|lunch!best|conversation!ambience</t>
   </si>
   <si>
-    <t>river!-|weehawken!-|idea!-|top!-|view!-|chart!-|house!-</t>
+    <t>river!-|idea!-|top!-|view!-|chart!-|house!-</t>
   </si>
   <si>
     <t>dessert!incredible|lava!incredible|cake!incredible</t>
@@ -4000,7 +3643,7 @@
     <t>restaurant!cozy</t>
   </si>
   <si>
-    <t>desserts!brilliant|soup!brilliant|food!average|onion!french|way!desserts</t>
+    <t>desserts!brilliant|soup!brilliant|food!average|way!desserts</t>
   </si>
   <si>
     <t>ambience!-|food!-|companion!-|trip!-|world!-</t>
@@ -4057,7 +3700,7 @@
     <t>service!great</t>
   </si>
   <si>
-    <t>people!friendly|new!friendly|york!friendly</t>
+    <t>people!friendly</t>
   </si>
   <si>
     <t>|pizza!yummy</t>
@@ -4090,7 +3733,7 @@
     <t>terrace!enjoy|garden!enjoy</t>
   </si>
   <si>
-    <t>nights!warm|restaurant!warm|kitchen!open|part!open</t>
+    <t>restaurant!warm|kitchen!open|part!open</t>
   </si>
   <si>
     <t>setting!intimate|service!intimate|occasion!special</t>
@@ -4102,7 +3745,7 @@
     <t>lounge!attraction</t>
   </si>
   <si>
-    <t>restaurant!romantic|raga!romantic</t>
+    <t>restaurant!romantic</t>
   </si>
   <si>
     <t>staff!helpful</t>
@@ -4117,7 +3760,7 @@
     <t>server!helpful</t>
   </si>
   <si>
-    <t>atmosphere!wonderful|evening!cool|avenue!6th</t>
+    <t>atmosphere!wonderful|avenue!6th</t>
   </si>
   <si>
     <t>staff!nonsense</t>
@@ -4240,7 +3883,7 @@
     <t>delivery!-</t>
   </si>
   <si>
-    <t>zero!-|ambiance!-|boot!-</t>
+    <t>ambiance!-|boot!-</t>
   </si>
   <si>
     <t>ambience!nice|service!great</t>
@@ -4297,7 +3940,7 @@
     <t>restaurant!cramped</t>
   </si>
   <si>
-    <t>bar!nice|cigar!nice|staff!great|patroon!bar</t>
+    <t>bar!nice|cigar!nice|staff!great</t>
   </si>
   <si>
     <t>waitstaff!friendly</t>
@@ -4327,7 +3970,7 @@
     <t>waitress!concerned|waitress!concerned</t>
   </si>
   <si>
-    <t>things!work|thing!only|tips!only|america!things</t>
+    <t>things!work|thing!only|tips!only</t>
   </si>
   <si>
     <t>tip!more|model/waitress!more|manager!more</t>
@@ -4339,7 +3982,7 @@
     <t>decor!charming</t>
   </si>
   <si>
-    <t>experience!worst|customer!worst|service!worst|weeks!experience|restaurant!worst</t>
+    <t>experience!worst|customer!worst|service!worst|restaurant!worst</t>
   </si>
   <si>
     <t>gentleman!much|manager!much|table!much|smile!much|order!much</t>
@@ -4396,7 +4039,7 @@
     <t>place!great</t>
   </si>
   <si>
-    <t>murray!-|anything!-|service!-</t>
+    <t>anything!-|service!-</t>
   </si>
   <si>
     <t>service!awful</t>
@@ -4414,7 +4057,7 @@
     <t>atmoshere!great|bit!great</t>
   </si>
   <si>
-    <t>crew!best|winnie!best|staff!winnie|staff!crew</t>
+    <t>crew!best|staff!winnie|staff!crew</t>
   </si>
   <si>
     <t>place!quiet</t>
@@ -4423,13 +4066,13 @@
     <t>staff!pleasant|wait!pleasant|part!most|beautification!wonderful|fun!staff|way!wonderful|way!wonderful</t>
   </si>
   <si>
-    <t>part!best|atmosphere!best|ls!best|bts!atmosphere|night!late</t>
-  </si>
-  <si>
-    <t>taste!good|music!good|dj!taste|lady!in-house|nights!in-house</t>
-  </si>
-  <si>
-    <t>feature!great|terrace!great|suan!great</t>
+    <t>part!best|atmosphere!best|ls!best|bts!atmosphere</t>
+  </si>
+  <si>
+    <t>taste!good|music!good|dj!taste|lady!in-house</t>
+  </si>
+  <si>
+    <t>feature!great|terrace!great</t>
   </si>
   <si>
     <t>|staff!friendlier</t>
@@ -4438,7 +4081,7 @@
     <t>|setting!casual</t>
   </si>
   <si>
-    <t>sum!dim|atmosphere!dim|wait!long|gig!typical|alternative!wait|tables!like|chinatown!sleek</t>
+    <t>sum!dim|atmosphere!dim|wait!long|gig!typical|alternative!wait|tables!like</t>
   </si>
   <si>
     <t>service!friendly|atmosphere!casual</t>
@@ -4468,7 +4111,7 @@
     <t>|patio!gigantic</t>
   </si>
   <si>
-    <t>months!warmer|seating!warmer|winter!outdoor</t>
+    <t>seating!warmer</t>
   </si>
   <si>
     <t>design!good|atmosphere!good</t>
@@ -4498,10 +4141,10 @@
     <t>scene!love|character!nice|light!nice|place!character</t>
   </si>
   <si>
-    <t>atmosphere!love|paris!atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant!warm|city!new|friend!city</t>
+    <t>atmosphere!love</t>
+  </si>
+  <si>
+    <t>restaurant!warm|friend!city</t>
   </si>
   <si>
     <t>space!-|kind!-|alice!-|wonderland!-|setting!-</t>
@@ -4510,13 +4153,13 @@
     <t>|place!hidden|bit!place</t>
   </si>
   <si>
-    <t>something!-|atmosphere!-|week!-</t>
+    <t>something!-|atmosphere!-</t>
   </si>
   <si>
     <t>restaurant!nice</t>
   </si>
   <si>
-    <t>area!nice|garden!nice|months!area</t>
+    <t>area!nice|garden!nice</t>
   </si>
   <si>
     <t>place!recommend</t>
@@ -5055,10 +4698,10 @@
         <v>1041</v>
       </c>
       <c r="G2" t="s">
-        <v>1168</v>
+        <v>1049</v>
       </c>
       <c r="H2" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5077,14 +4720,11 @@
       <c r="E3" t="s">
         <v>988</v>
       </c>
-      <c r="F3" t="s">
-        <v>990</v>
-      </c>
       <c r="G3" t="s">
-        <v>1169</v>
+        <v>1050</v>
       </c>
       <c r="H3" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5107,10 +4747,10 @@
         <v>1042</v>
       </c>
       <c r="G4" t="s">
-        <v>1170</v>
+        <v>1051</v>
       </c>
       <c r="H4" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5133,10 +4773,10 @@
         <v>1043</v>
       </c>
       <c r="G5" t="s">
-        <v>1171</v>
+        <v>1052</v>
       </c>
       <c r="H5" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5155,14 +4795,11 @@
       <c r="E6" t="s">
         <v>989</v>
       </c>
-      <c r="F6" t="s">
-        <v>1021</v>
-      </c>
       <c r="G6" t="s">
-        <v>1172</v>
+        <v>1053</v>
       </c>
       <c r="H6" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5182,13 +4819,13 @@
         <v>988</v>
       </c>
       <c r="F7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G7" t="s">
-        <v>1173</v>
+        <v>1054</v>
       </c>
       <c r="H7" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5207,14 +4844,11 @@
       <c r="E8" t="s">
         <v>987</v>
       </c>
-      <c r="F8" t="s">
-        <v>1021</v>
-      </c>
       <c r="G8" t="s">
-        <v>1174</v>
+        <v>1055</v>
       </c>
       <c r="H8" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5234,13 +4868,13 @@
         <v>987</v>
       </c>
       <c r="F9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G9" t="s">
-        <v>1175</v>
+        <v>1056</v>
       </c>
       <c r="H9" t="s">
-        <v>1514</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5260,13 +4894,13 @@
         <v>990</v>
       </c>
       <c r="F10" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G10" t="s">
-        <v>1176</v>
+        <v>1057</v>
       </c>
       <c r="H10" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5285,14 +4919,11 @@
       <c r="E11" t="s">
         <v>991</v>
       </c>
-      <c r="F11" t="s">
-        <v>1021</v>
-      </c>
       <c r="G11" t="s">
-        <v>1177</v>
+        <v>1058</v>
       </c>
       <c r="H11" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5311,14 +4942,11 @@
       <c r="E12" t="s">
         <v>992</v>
       </c>
-      <c r="F12" t="s">
-        <v>1026</v>
-      </c>
       <c r="G12" t="s">
-        <v>1178</v>
+        <v>1059</v>
       </c>
       <c r="H12" t="s">
-        <v>1514</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5338,13 +4966,13 @@
         <v>989</v>
       </c>
       <c r="F13" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G13" t="s">
-        <v>1179</v>
+        <v>1060</v>
       </c>
       <c r="H13" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5363,14 +4991,11 @@
       <c r="E14" t="s">
         <v>987</v>
       </c>
-      <c r="F14" t="s">
-        <v>1021</v>
-      </c>
       <c r="G14" t="s">
-        <v>1180</v>
+        <v>1061</v>
       </c>
       <c r="H14" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5389,14 +5014,11 @@
       <c r="E15" t="s">
         <v>987</v>
       </c>
-      <c r="F15" t="s">
-        <v>1021</v>
-      </c>
       <c r="G15" t="s">
-        <v>1181</v>
+        <v>1062</v>
       </c>
       <c r="H15" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5416,13 +5038,13 @@
         <v>989</v>
       </c>
       <c r="F16" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G16" t="s">
-        <v>1182</v>
+        <v>1063</v>
       </c>
       <c r="H16" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5442,13 +5064,13 @@
         <v>993</v>
       </c>
       <c r="F17" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="G17" t="s">
-        <v>1183</v>
+        <v>1064</v>
       </c>
       <c r="H17" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5467,14 +5089,11 @@
       <c r="E18" t="s">
         <v>987</v>
       </c>
-      <c r="F18" t="s">
-        <v>1021</v>
-      </c>
       <c r="G18" t="s">
-        <v>1184</v>
+        <v>1065</v>
       </c>
       <c r="H18" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5494,13 +5113,13 @@
         <v>989</v>
       </c>
       <c r="F19" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="G19" t="s">
-        <v>1185</v>
+        <v>1066</v>
       </c>
       <c r="H19" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5520,13 +5139,13 @@
         <v>987</v>
       </c>
       <c r="F20" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G20" t="s">
-        <v>1186</v>
+        <v>1067</v>
       </c>
       <c r="H20" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5546,13 +5165,13 @@
         <v>994</v>
       </c>
       <c r="F21" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="G21" t="s">
-        <v>1187</v>
+        <v>1068</v>
       </c>
       <c r="H21" t="s">
-        <v>1517</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5571,14 +5190,11 @@
       <c r="E22" t="s">
         <v>995</v>
       </c>
-      <c r="F22" t="s">
-        <v>990</v>
-      </c>
       <c r="G22" t="s">
-        <v>1188</v>
+        <v>1069</v>
       </c>
       <c r="H22" t="s">
-        <v>1517</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5598,7 +5214,7 @@
         <v>992</v>
       </c>
       <c r="H23" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5618,13 +5234,13 @@
         <v>996</v>
       </c>
       <c r="F24" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G24" t="s">
-        <v>1189</v>
+        <v>1070</v>
       </c>
       <c r="H24" t="s">
-        <v>1518</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5643,14 +5259,11 @@
       <c r="E25" t="s">
         <v>987</v>
       </c>
-      <c r="F25" t="s">
-        <v>1021</v>
-      </c>
       <c r="G25" t="s">
-        <v>1190</v>
+        <v>1071</v>
       </c>
       <c r="H25" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5670,13 +5283,13 @@
         <v>997</v>
       </c>
       <c r="F26" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="G26" t="s">
-        <v>1191</v>
+        <v>1072</v>
       </c>
       <c r="H26" t="s">
-        <v>1519</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5696,13 +5309,13 @@
         <v>990</v>
       </c>
       <c r="F27" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G27" t="s">
-        <v>1192</v>
+        <v>1073</v>
       </c>
       <c r="H27" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5722,13 +5335,13 @@
         <v>998</v>
       </c>
       <c r="F28" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G28" t="s">
-        <v>1193</v>
+        <v>1074</v>
       </c>
       <c r="H28" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5748,13 +5361,13 @@
         <v>999</v>
       </c>
       <c r="F29" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="G29" t="s">
-        <v>1194</v>
+        <v>1075</v>
       </c>
       <c r="H29" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5774,13 +5387,13 @@
         <v>1000</v>
       </c>
       <c r="F30" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="G30" t="s">
-        <v>1195</v>
+        <v>1076</v>
       </c>
       <c r="H30" t="s">
-        <v>1517</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5800,13 +5413,13 @@
         <v>1001</v>
       </c>
       <c r="F31" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="G31" t="s">
-        <v>1196</v>
+        <v>1077</v>
       </c>
       <c r="H31" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5826,13 +5439,13 @@
         <v>994</v>
       </c>
       <c r="F32" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G32" t="s">
-        <v>1197</v>
+        <v>1078</v>
       </c>
       <c r="H32" t="s">
-        <v>1520</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5851,14 +5464,11 @@
       <c r="E33" t="s">
         <v>987</v>
       </c>
-      <c r="F33" t="s">
-        <v>1021</v>
-      </c>
       <c r="G33" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="H33" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5877,14 +5487,11 @@
       <c r="E34" t="s">
         <v>987</v>
       </c>
-      <c r="F34" t="s">
-        <v>990</v>
-      </c>
       <c r="G34" t="s">
-        <v>1199</v>
+        <v>1080</v>
       </c>
       <c r="H34" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5904,13 +5511,13 @@
         <v>989</v>
       </c>
       <c r="F35" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G35" t="s">
-        <v>1200</v>
+        <v>1081</v>
       </c>
       <c r="H35" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5930,13 +5537,13 @@
         <v>987</v>
       </c>
       <c r="F36" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="G36" t="s">
-        <v>1201</v>
+        <v>1082</v>
       </c>
       <c r="H36" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5955,14 +5562,11 @@
       <c r="E37" t="s">
         <v>987</v>
       </c>
-      <c r="F37" t="s">
-        <v>990</v>
-      </c>
       <c r="G37" t="s">
-        <v>1202</v>
+        <v>1083</v>
       </c>
       <c r="H37" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5982,13 +5586,13 @@
         <v>990</v>
       </c>
       <c r="F38" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="G38" t="s">
-        <v>1203</v>
+        <v>1084</v>
       </c>
       <c r="H38" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6008,13 +5612,13 @@
         <v>987</v>
       </c>
       <c r="F39" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G39" t="s">
-        <v>1204</v>
+        <v>1085</v>
       </c>
       <c r="H39" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6034,13 +5638,13 @@
         <v>989</v>
       </c>
       <c r="F40" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="G40" t="s">
-        <v>1205</v>
+        <v>1086</v>
       </c>
       <c r="H40" t="s">
-        <v>1521</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6060,13 +5664,13 @@
         <v>993</v>
       </c>
       <c r="F41" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="G41" t="s">
-        <v>1206</v>
+        <v>1087</v>
       </c>
       <c r="H41" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6086,13 +5690,13 @@
         <v>989</v>
       </c>
       <c r="F42" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="G42" t="s">
-        <v>1207</v>
+        <v>1088</v>
       </c>
       <c r="H42" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6112,13 +5716,13 @@
         <v>987</v>
       </c>
       <c r="F43" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G43" t="s">
-        <v>1208</v>
+        <v>1089</v>
       </c>
       <c r="H43" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6138,13 +5742,13 @@
         <v>1002</v>
       </c>
       <c r="F44" t="s">
-        <v>1063</v>
+        <v>1043</v>
       </c>
       <c r="G44" t="s">
-        <v>1209</v>
+        <v>1090</v>
       </c>
       <c r="H44" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6164,13 +5768,13 @@
         <v>1003</v>
       </c>
       <c r="F45" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="G45" t="s">
-        <v>1210</v>
+        <v>1091</v>
       </c>
       <c r="H45" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6189,14 +5793,11 @@
       <c r="E46" t="s">
         <v>987</v>
       </c>
-      <c r="F46" t="s">
-        <v>1021</v>
-      </c>
       <c r="G46" t="s">
-        <v>1211</v>
+        <v>1092</v>
       </c>
       <c r="H46" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6216,13 +5817,13 @@
         <v>990</v>
       </c>
       <c r="F47" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G47" t="s">
-        <v>1212</v>
+        <v>1093</v>
       </c>
       <c r="H47" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6242,13 +5843,13 @@
         <v>987</v>
       </c>
       <c r="F48" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="G48" t="s">
-        <v>1213</v>
+        <v>1094</v>
       </c>
       <c r="H48" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6267,14 +5868,11 @@
       <c r="E49" t="s">
         <v>1004</v>
       </c>
-      <c r="F49" t="s">
-        <v>1021</v>
-      </c>
       <c r="G49" t="s">
-        <v>1214</v>
+        <v>1095</v>
       </c>
       <c r="H49" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6293,14 +5891,11 @@
       <c r="E50" t="s">
         <v>987</v>
       </c>
-      <c r="F50" t="s">
-        <v>1021</v>
-      </c>
       <c r="G50" t="s">
-        <v>1215</v>
+        <v>1096</v>
       </c>
       <c r="H50" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6319,14 +5914,11 @@
       <c r="E51" t="s">
         <v>987</v>
       </c>
-      <c r="F51" t="s">
-        <v>1021</v>
-      </c>
       <c r="G51" t="s">
-        <v>1216</v>
+        <v>1097</v>
       </c>
       <c r="H51" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6346,13 +5938,13 @@
         <v>990</v>
       </c>
       <c r="F52" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
       <c r="G52" t="s">
-        <v>1217</v>
+        <v>1098</v>
       </c>
       <c r="H52" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6371,14 +5963,11 @@
       <c r="E53" t="s">
         <v>987</v>
       </c>
-      <c r="F53" t="s">
-        <v>1021</v>
-      </c>
       <c r="G53" t="s">
-        <v>1211</v>
+        <v>1092</v>
       </c>
       <c r="H53" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6398,13 +5987,13 @@
         <v>998</v>
       </c>
       <c r="F54" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="G54" t="s">
-        <v>1218</v>
+        <v>1099</v>
       </c>
       <c r="H54" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6424,13 +6013,13 @@
         <v>987</v>
       </c>
       <c r="F55" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G55" t="s">
-        <v>1219</v>
+        <v>1100</v>
       </c>
       <c r="H55" t="s">
-        <v>1522</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6450,13 +6039,13 @@
         <v>1005</v>
       </c>
       <c r="F56" t="s">
-        <v>1068</v>
+        <v>1041</v>
       </c>
       <c r="G56" t="s">
-        <v>1220</v>
+        <v>1101</v>
       </c>
       <c r="H56" t="s">
-        <v>1523</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6476,13 +6065,13 @@
         <v>992</v>
       </c>
       <c r="F57" t="s">
-        <v>1069</v>
+        <v>1041</v>
       </c>
       <c r="G57" t="s">
-        <v>1221</v>
+        <v>1102</v>
       </c>
       <c r="H57" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6502,13 +6091,13 @@
         <v>1004</v>
       </c>
       <c r="F58" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G58" t="s">
-        <v>1222</v>
+        <v>1103</v>
       </c>
       <c r="H58" t="s">
-        <v>1524</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6528,13 +6117,13 @@
         <v>992</v>
       </c>
       <c r="F59" t="s">
-        <v>1070</v>
+        <v>1043</v>
       </c>
       <c r="G59" t="s">
-        <v>1223</v>
+        <v>1104</v>
       </c>
       <c r="H59" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6554,13 +6143,13 @@
         <v>1000</v>
       </c>
       <c r="F60" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="G60" t="s">
-        <v>1224</v>
+        <v>1105</v>
       </c>
       <c r="H60" t="s">
-        <v>1525</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6580,13 +6169,13 @@
         <v>1006</v>
       </c>
       <c r="F61" t="s">
-        <v>1071</v>
+        <v>1043</v>
       </c>
       <c r="G61" t="s">
-        <v>1225</v>
+        <v>1106</v>
       </c>
       <c r="H61" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6606,13 +6195,13 @@
         <v>987</v>
       </c>
       <c r="F62" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="G62" t="s">
-        <v>1226</v>
+        <v>1107</v>
       </c>
       <c r="H62" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6632,13 +6221,13 @@
         <v>987</v>
       </c>
       <c r="F63" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G63" t="s">
-        <v>1208</v>
+        <v>1089</v>
       </c>
       <c r="H63" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6658,13 +6247,13 @@
         <v>1004</v>
       </c>
       <c r="F64" t="s">
-        <v>1073</v>
+        <v>1043</v>
       </c>
       <c r="G64" t="s">
-        <v>1227</v>
+        <v>1108</v>
       </c>
       <c r="H64" t="s">
-        <v>1514</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6684,13 +6273,13 @@
         <v>1007</v>
       </c>
       <c r="F65" t="s">
-        <v>1074</v>
+        <v>1041</v>
       </c>
       <c r="G65" t="s">
-        <v>1228</v>
+        <v>1109</v>
       </c>
       <c r="H65" t="s">
-        <v>1526</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6710,13 +6299,13 @@
         <v>987</v>
       </c>
       <c r="F66" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
       <c r="G66" t="s">
-        <v>1229</v>
+        <v>1110</v>
       </c>
       <c r="H66" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6736,13 +6325,13 @@
         <v>989</v>
       </c>
       <c r="F67" t="s">
-        <v>1075</v>
+        <v>1043</v>
       </c>
       <c r="G67" t="s">
-        <v>1230</v>
+        <v>1111</v>
       </c>
       <c r="H67" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6762,13 +6351,13 @@
         <v>987</v>
       </c>
       <c r="F68" t="s">
-        <v>1076</v>
+        <v>1041</v>
       </c>
       <c r="G68" t="s">
-        <v>1231</v>
+        <v>1112</v>
       </c>
       <c r="H68" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6788,13 +6377,13 @@
         <v>987</v>
       </c>
       <c r="F69" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G69" t="s">
-        <v>1232</v>
+        <v>1113</v>
       </c>
       <c r="H69" t="s">
-        <v>1527</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6813,14 +6402,11 @@
       <c r="E70" t="s">
         <v>990</v>
       </c>
-      <c r="F70" t="s">
-        <v>1026</v>
-      </c>
       <c r="G70" t="s">
-        <v>1233</v>
+        <v>1114</v>
       </c>
       <c r="H70" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6839,14 +6425,11 @@
       <c r="E71" t="s">
         <v>987</v>
       </c>
-      <c r="F71" t="s">
-        <v>1021</v>
-      </c>
       <c r="G71" t="s">
-        <v>1234</v>
+        <v>1115</v>
       </c>
       <c r="H71" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6866,13 +6449,13 @@
         <v>1004</v>
       </c>
       <c r="F72" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G72" t="s">
-        <v>1235</v>
+        <v>1116</v>
       </c>
       <c r="H72" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6892,13 +6475,13 @@
         <v>987</v>
       </c>
       <c r="F73" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G73" t="s">
-        <v>1236</v>
+        <v>1117</v>
       </c>
       <c r="H73" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6918,13 +6501,13 @@
         <v>987</v>
       </c>
       <c r="F74" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G74" t="s">
-        <v>1237</v>
+        <v>1118</v>
       </c>
       <c r="H74" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6944,13 +6527,13 @@
         <v>987</v>
       </c>
       <c r="F75" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
       <c r="G75" t="s">
-        <v>1238</v>
+        <v>1119</v>
       </c>
       <c r="H75" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6970,13 +6553,13 @@
         <v>1008</v>
       </c>
       <c r="F76" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="G76" t="s">
-        <v>1239</v>
+        <v>1120</v>
       </c>
       <c r="H76" t="s">
-        <v>1517</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6996,13 +6579,13 @@
         <v>1004</v>
       </c>
       <c r="F77" t="s">
-        <v>1079</v>
+        <v>1042</v>
       </c>
       <c r="G77" t="s">
-        <v>1240</v>
+        <v>1121</v>
       </c>
       <c r="H77" t="s">
-        <v>1529</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7022,13 +6605,13 @@
         <v>1009</v>
       </c>
       <c r="F78" t="s">
-        <v>1080</v>
+        <v>1047</v>
       </c>
       <c r="G78" t="s">
-        <v>1241</v>
+        <v>1122</v>
       </c>
       <c r="H78" t="s">
-        <v>1530</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7048,13 +6631,13 @@
         <v>1010</v>
       </c>
       <c r="F79" t="s">
-        <v>1081</v>
+        <v>1048</v>
       </c>
       <c r="G79" t="s">
-        <v>1242</v>
+        <v>1123</v>
       </c>
       <c r="H79" t="s">
-        <v>1531</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7074,13 +6657,13 @@
         <v>1011</v>
       </c>
       <c r="F80" t="s">
-        <v>1082</v>
+        <v>1041</v>
       </c>
       <c r="G80" t="s">
-        <v>1243</v>
+        <v>1124</v>
       </c>
       <c r="H80" t="s">
-        <v>1529</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7100,13 +6683,13 @@
         <v>987</v>
       </c>
       <c r="F81" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="G81" t="s">
-        <v>1244</v>
+        <v>1125</v>
       </c>
       <c r="H81" t="s">
-        <v>1532</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7126,13 +6709,13 @@
         <v>1007</v>
       </c>
       <c r="F82" t="s">
-        <v>1083</v>
+        <v>1043</v>
       </c>
       <c r="G82" t="s">
-        <v>1245</v>
+        <v>1126</v>
       </c>
       <c r="H82" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7151,14 +6734,11 @@
       <c r="E83" t="s">
         <v>990</v>
       </c>
-      <c r="F83" t="s">
-        <v>1021</v>
-      </c>
       <c r="G83" t="s">
-        <v>1246</v>
+        <v>1127</v>
       </c>
       <c r="H83" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7178,13 +6758,13 @@
         <v>991</v>
       </c>
       <c r="F84" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G84" t="s">
-        <v>1247</v>
+        <v>1128</v>
       </c>
       <c r="H84" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7203,14 +6783,11 @@
       <c r="E85" t="s">
         <v>987</v>
       </c>
-      <c r="F85" t="s">
-        <v>1021</v>
-      </c>
       <c r="G85" t="s">
-        <v>1248</v>
+        <v>1129</v>
       </c>
       <c r="H85" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7230,13 +6807,13 @@
         <v>987</v>
       </c>
       <c r="F86" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G86" t="s">
-        <v>1249</v>
+        <v>1130</v>
       </c>
       <c r="H86" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7256,13 +6833,13 @@
         <v>990</v>
       </c>
       <c r="F87" t="s">
-        <v>1084</v>
+        <v>1042</v>
       </c>
       <c r="G87" t="s">
-        <v>1250</v>
+        <v>1131</v>
       </c>
       <c r="H87" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7282,13 +6859,13 @@
         <v>993</v>
       </c>
       <c r="F88" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="G88" t="s">
-        <v>1251</v>
+        <v>1132</v>
       </c>
       <c r="H88" t="s">
-        <v>1533</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7308,7 +6885,7 @@
         <v>990</v>
       </c>
       <c r="H89" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7328,13 +6905,13 @@
         <v>990</v>
       </c>
       <c r="F90" t="s">
-        <v>1085</v>
+        <v>1044</v>
       </c>
       <c r="G90" t="s">
-        <v>1252</v>
+        <v>1133</v>
       </c>
       <c r="H90" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7354,13 +6931,13 @@
         <v>987</v>
       </c>
       <c r="F91" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G91" t="s">
-        <v>1253</v>
+        <v>1134</v>
       </c>
       <c r="H91" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7380,13 +6957,13 @@
         <v>1007</v>
       </c>
       <c r="F92" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G92" t="s">
-        <v>1254</v>
+        <v>1135</v>
       </c>
       <c r="H92" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7406,13 +6983,13 @@
         <v>990</v>
       </c>
       <c r="F93" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="G93" t="s">
-        <v>1255</v>
+        <v>1136</v>
       </c>
       <c r="H93" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7432,13 +7009,13 @@
         <v>1006</v>
       </c>
       <c r="F94" t="s">
-        <v>1087</v>
+        <v>1043</v>
       </c>
       <c r="G94" t="s">
-        <v>1256</v>
+        <v>1137</v>
       </c>
       <c r="H94" t="s">
-        <v>1534</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7458,13 +7035,13 @@
         <v>996</v>
       </c>
       <c r="F95" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="G95" t="s">
-        <v>1257</v>
+        <v>1138</v>
       </c>
       <c r="H95" t="s">
-        <v>1535</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7484,13 +7061,13 @@
         <v>1012</v>
       </c>
       <c r="F96" t="s">
-        <v>1088</v>
+        <v>1041</v>
       </c>
       <c r="G96" t="s">
-        <v>1258</v>
+        <v>1139</v>
       </c>
       <c r="H96" t="s">
-        <v>1536</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7510,13 +7087,13 @@
         <v>1013</v>
       </c>
       <c r="F97" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G97" t="s">
-        <v>1259</v>
+        <v>1140</v>
       </c>
       <c r="H97" t="s">
-        <v>1518</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -7536,13 +7113,13 @@
         <v>991</v>
       </c>
       <c r="F98" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="G98" t="s">
-        <v>1260</v>
+        <v>1141</v>
       </c>
       <c r="H98" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -7562,13 +7139,13 @@
         <v>990</v>
       </c>
       <c r="F99" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
       <c r="G99" t="s">
-        <v>1261</v>
+        <v>1142</v>
       </c>
       <c r="H99" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -7587,14 +7164,11 @@
       <c r="E100" t="s">
         <v>989</v>
       </c>
-      <c r="F100" t="s">
-        <v>1021</v>
-      </c>
       <c r="G100" t="s">
-        <v>1262</v>
+        <v>1143</v>
       </c>
       <c r="H100" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7614,13 +7188,13 @@
         <v>1012</v>
       </c>
       <c r="F101" t="s">
-        <v>1089</v>
+        <v>1041</v>
       </c>
       <c r="G101" t="s">
-        <v>1263</v>
+        <v>1144</v>
       </c>
       <c r="H101" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7639,14 +7213,11 @@
       <c r="E102" t="s">
         <v>987</v>
       </c>
-      <c r="F102" t="s">
-        <v>1021</v>
-      </c>
       <c r="G102" t="s">
-        <v>1264</v>
+        <v>1145</v>
       </c>
       <c r="H102" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7666,13 +7237,13 @@
         <v>990</v>
       </c>
       <c r="F103" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G103" t="s">
-        <v>1265</v>
+        <v>1146</v>
       </c>
       <c r="H103" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7692,13 +7263,13 @@
         <v>992</v>
       </c>
       <c r="F104" t="s">
-        <v>1090</v>
+        <v>1044</v>
       </c>
       <c r="G104" t="s">
-        <v>1266</v>
+        <v>1147</v>
       </c>
       <c r="H104" t="s">
-        <v>1537</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -7717,14 +7288,11 @@
       <c r="E105" t="s">
         <v>992</v>
       </c>
-      <c r="F105" t="s">
-        <v>1026</v>
-      </c>
       <c r="G105" t="s">
-        <v>1267</v>
+        <v>1148</v>
       </c>
       <c r="H105" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -7743,14 +7311,11 @@
       <c r="E106" t="s">
         <v>990</v>
       </c>
-      <c r="F106" t="s">
-        <v>1021</v>
-      </c>
       <c r="G106" t="s">
-        <v>1268</v>
+        <v>1149</v>
       </c>
       <c r="H106" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7770,13 +7335,13 @@
         <v>990</v>
       </c>
       <c r="F107" t="s">
-        <v>1085</v>
+        <v>1044</v>
       </c>
       <c r="G107" t="s">
-        <v>1269</v>
+        <v>1150</v>
       </c>
       <c r="H107" t="s">
-        <v>1527</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7795,14 +7360,11 @@
       <c r="E108" t="s">
         <v>1012</v>
       </c>
-      <c r="F108" t="s">
-        <v>1019</v>
-      </c>
       <c r="G108" t="s">
-        <v>1270</v>
+        <v>1151</v>
       </c>
       <c r="H108" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7822,13 +7384,13 @@
         <v>990</v>
       </c>
       <c r="F109" t="s">
-        <v>1091</v>
+        <v>1045</v>
       </c>
       <c r="G109" t="s">
-        <v>1271</v>
+        <v>1152</v>
       </c>
       <c r="H109" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7847,14 +7409,11 @@
       <c r="E110" t="s">
         <v>987</v>
       </c>
-      <c r="F110" t="s">
-        <v>1021</v>
-      </c>
       <c r="G110" t="s">
-        <v>1272</v>
+        <v>1153</v>
       </c>
       <c r="H110" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7873,14 +7432,11 @@
       <c r="E111" t="s">
         <v>987</v>
       </c>
-      <c r="F111" t="s">
-        <v>1021</v>
-      </c>
       <c r="G111" t="s">
-        <v>1273</v>
+        <v>1154</v>
       </c>
       <c r="H111" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7900,13 +7456,13 @@
         <v>987</v>
       </c>
       <c r="F112" t="s">
-        <v>1092</v>
+        <v>1045</v>
       </c>
       <c r="G112" t="s">
-        <v>1274</v>
+        <v>1155</v>
       </c>
       <c r="H112" t="s">
-        <v>1529</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7926,13 +7482,13 @@
         <v>987</v>
       </c>
       <c r="F113" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="G113" t="s">
-        <v>1275</v>
+        <v>1156</v>
       </c>
       <c r="H113" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7951,14 +7507,11 @@
       <c r="E114" t="s">
         <v>990</v>
       </c>
-      <c r="F114" t="s">
-        <v>990</v>
-      </c>
       <c r="G114" t="s">
-        <v>1276</v>
+        <v>1157</v>
       </c>
       <c r="H114" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7978,13 +7531,13 @@
         <v>987</v>
       </c>
       <c r="F115" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G115" t="s">
-        <v>1277</v>
+        <v>1158</v>
       </c>
       <c r="H115" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8004,13 +7557,13 @@
         <v>1014</v>
       </c>
       <c r="F116" t="s">
-        <v>1093</v>
+        <v>1043</v>
       </c>
       <c r="G116" t="s">
-        <v>1278</v>
+        <v>1159</v>
       </c>
       <c r="H116" t="s">
-        <v>1538</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8030,13 +7583,13 @@
         <v>987</v>
       </c>
       <c r="F117" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G117" t="s">
-        <v>1279</v>
+        <v>1160</v>
       </c>
       <c r="H117" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8056,13 +7609,13 @@
         <v>1004</v>
       </c>
       <c r="F118" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G118" t="s">
-        <v>1280</v>
+        <v>1161</v>
       </c>
       <c r="H118" t="s">
-        <v>1524</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8082,13 +7635,13 @@
         <v>990</v>
       </c>
       <c r="F119" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G119" t="s">
-        <v>1281</v>
+        <v>1162</v>
       </c>
       <c r="H119" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8108,13 +7661,13 @@
         <v>1004</v>
       </c>
       <c r="F120" t="s">
-        <v>1094</v>
+        <v>1044</v>
       </c>
       <c r="G120" t="s">
-        <v>1282</v>
+        <v>1163</v>
       </c>
       <c r="H120" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8134,13 +7687,13 @@
         <v>990</v>
       </c>
       <c r="F121" t="s">
-        <v>1095</v>
+        <v>1045</v>
       </c>
       <c r="G121" t="s">
-        <v>1283</v>
+        <v>1164</v>
       </c>
       <c r="H121" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8159,14 +7712,11 @@
       <c r="E122" t="s">
         <v>1015</v>
       </c>
-      <c r="F122" t="s">
-        <v>1019</v>
-      </c>
       <c r="G122" t="s">
-        <v>1284</v>
+        <v>1165</v>
       </c>
       <c r="H122" t="s">
-        <v>1531</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8186,13 +7736,13 @@
         <v>1016</v>
       </c>
       <c r="F123" t="s">
-        <v>1096</v>
+        <v>1045</v>
       </c>
       <c r="G123" t="s">
-        <v>1285</v>
+        <v>1166</v>
       </c>
       <c r="H123" t="s">
-        <v>1523</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8212,13 +7762,13 @@
         <v>987</v>
       </c>
       <c r="F124" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G124" t="s">
-        <v>1286</v>
+        <v>1167</v>
       </c>
       <c r="H124" t="s">
-        <v>1539</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8238,13 +7788,13 @@
         <v>987</v>
       </c>
       <c r="F125" t="s">
-        <v>1097</v>
+        <v>1045</v>
       </c>
       <c r="G125" t="s">
-        <v>1287</v>
+        <v>1168</v>
       </c>
       <c r="H125" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8263,14 +7813,11 @@
       <c r="E126" t="s">
         <v>1017</v>
       </c>
-      <c r="F126" t="s">
-        <v>1021</v>
-      </c>
       <c r="G126" t="s">
-        <v>1288</v>
+        <v>1169</v>
       </c>
       <c r="H126" t="s">
-        <v>1540</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8290,10 +7837,10 @@
         <v>990</v>
       </c>
       <c r="G127" t="s">
-        <v>1289</v>
+        <v>1170</v>
       </c>
       <c r="H127" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8312,14 +7859,11 @@
       <c r="E128" t="s">
         <v>1012</v>
       </c>
-      <c r="F128" t="s">
-        <v>1019</v>
-      </c>
       <c r="G128" t="s">
-        <v>1290</v>
+        <v>1171</v>
       </c>
       <c r="H128" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8339,13 +7883,13 @@
         <v>1004</v>
       </c>
       <c r="F129" t="s">
-        <v>1098</v>
+        <v>1043</v>
       </c>
       <c r="G129" t="s">
-        <v>1291</v>
+        <v>1172</v>
       </c>
       <c r="H129" t="s">
-        <v>1524</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8365,13 +7909,13 @@
         <v>993</v>
       </c>
       <c r="F130" t="s">
-        <v>1099</v>
+        <v>1041</v>
       </c>
       <c r="G130" t="s">
-        <v>1292</v>
+        <v>1173</v>
       </c>
       <c r="H130" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8390,14 +7934,11 @@
       <c r="E131" t="s">
         <v>1018</v>
       </c>
-      <c r="F131" t="s">
-        <v>1021</v>
-      </c>
       <c r="G131" t="s">
-        <v>1293</v>
+        <v>1174</v>
       </c>
       <c r="H131" t="s">
-        <v>1529</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8416,14 +7957,11 @@
       <c r="E132" t="s">
         <v>1019</v>
       </c>
-      <c r="F132" t="s">
-        <v>1026</v>
-      </c>
       <c r="G132" t="s">
-        <v>1294</v>
+        <v>1175</v>
       </c>
       <c r="H132" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8443,13 +7981,13 @@
         <v>1020</v>
       </c>
       <c r="F133" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G133" t="s">
-        <v>1295</v>
+        <v>1176</v>
       </c>
       <c r="H133" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8469,13 +8007,13 @@
         <v>1021</v>
       </c>
       <c r="F134" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G134" t="s">
-        <v>1296</v>
+        <v>1177</v>
       </c>
       <c r="H134" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8495,13 +8033,13 @@
         <v>1020</v>
       </c>
       <c r="F135" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G135" t="s">
-        <v>1297</v>
+        <v>1178</v>
       </c>
       <c r="H135" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8521,13 +8059,13 @@
         <v>1019</v>
       </c>
       <c r="F136" t="s">
-        <v>1100</v>
+        <v>1046</v>
       </c>
       <c r="G136" t="s">
-        <v>1298</v>
+        <v>1179</v>
       </c>
       <c r="H136" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8547,13 +8085,13 @@
         <v>1020</v>
       </c>
       <c r="F137" t="s">
-        <v>1101</v>
+        <v>1042</v>
       </c>
       <c r="G137" t="s">
-        <v>1299</v>
+        <v>1180</v>
       </c>
       <c r="H137" t="s">
-        <v>1529</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8573,13 +8111,13 @@
         <v>1022</v>
       </c>
       <c r="F138" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G138" t="s">
-        <v>1300</v>
+        <v>1181</v>
       </c>
       <c r="H138" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -8598,14 +8136,11 @@
       <c r="E139" t="s">
         <v>1021</v>
       </c>
-      <c r="F139" t="s">
-        <v>1019</v>
-      </c>
       <c r="G139" t="s">
-        <v>1301</v>
+        <v>1182</v>
       </c>
       <c r="H139" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -8625,13 +8160,13 @@
         <v>1023</v>
       </c>
       <c r="F140" t="s">
-        <v>1102</v>
+        <v>1042</v>
       </c>
       <c r="G140" t="s">
-        <v>1302</v>
+        <v>1183</v>
       </c>
       <c r="H140" t="s">
-        <v>1529</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -8651,13 +8186,13 @@
         <v>1021</v>
       </c>
       <c r="F141" t="s">
-        <v>1103</v>
+        <v>1041</v>
       </c>
       <c r="G141" t="s">
-        <v>1303</v>
+        <v>1184</v>
       </c>
       <c r="H141" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -8677,13 +8212,13 @@
         <v>1020</v>
       </c>
       <c r="F142" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G142" t="s">
-        <v>1304</v>
+        <v>1185</v>
       </c>
       <c r="H142" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8703,13 +8238,13 @@
         <v>1024</v>
       </c>
       <c r="F143" t="s">
-        <v>1104</v>
+        <v>1044</v>
       </c>
       <c r="G143" t="s">
-        <v>1305</v>
+        <v>1186</v>
       </c>
       <c r="H143" t="s">
-        <v>1520</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8729,13 +8264,13 @@
         <v>1025</v>
       </c>
       <c r="F144" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G144" t="s">
-        <v>1306</v>
+        <v>1187</v>
       </c>
       <c r="H144" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8755,13 +8290,13 @@
         <v>1020</v>
       </c>
       <c r="F145" t="s">
-        <v>1105</v>
+        <v>1048</v>
       </c>
       <c r="G145" t="s">
-        <v>1307</v>
+        <v>1188</v>
       </c>
       <c r="H145" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -8781,13 +8316,13 @@
         <v>1019</v>
       </c>
       <c r="F146" t="s">
-        <v>1106</v>
+        <v>1044</v>
       </c>
       <c r="G146" t="s">
-        <v>1308</v>
+        <v>1189</v>
       </c>
       <c r="H146" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8807,7 +8342,7 @@
         <v>1021</v>
       </c>
       <c r="H147" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8826,14 +8361,11 @@
       <c r="E148" t="s">
         <v>1019</v>
       </c>
-      <c r="F148" t="s">
-        <v>1019</v>
-      </c>
       <c r="G148" t="s">
-        <v>1309</v>
+        <v>1190</v>
       </c>
       <c r="H148" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8852,14 +8384,11 @@
       <c r="E149" t="s">
         <v>1026</v>
       </c>
-      <c r="F149" t="s">
-        <v>1026</v>
-      </c>
       <c r="G149" t="s">
-        <v>1310</v>
+        <v>1191</v>
       </c>
       <c r="H149" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8879,13 +8408,13 @@
         <v>1019</v>
       </c>
       <c r="F150" t="s">
-        <v>1099</v>
+        <v>1041</v>
       </c>
       <c r="G150" t="s">
-        <v>1311</v>
+        <v>1192</v>
       </c>
       <c r="H150" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8905,13 +8434,13 @@
         <v>1019</v>
       </c>
       <c r="F151" t="s">
-        <v>1107</v>
+        <v>1041</v>
       </c>
       <c r="G151" t="s">
-        <v>1312</v>
+        <v>1193</v>
       </c>
       <c r="H151" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8930,14 +8459,11 @@
       <c r="E152" t="s">
         <v>1021</v>
       </c>
-      <c r="F152" t="s">
-        <v>1021</v>
-      </c>
       <c r="G152" t="s">
-        <v>1211</v>
+        <v>1092</v>
       </c>
       <c r="H152" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8957,13 +8483,13 @@
         <v>1019</v>
       </c>
       <c r="F153" t="s">
-        <v>1108</v>
+        <v>1044</v>
       </c>
       <c r="G153" t="s">
-        <v>1313</v>
+        <v>1194</v>
       </c>
       <c r="H153" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8983,13 +8509,13 @@
         <v>1021</v>
       </c>
       <c r="F154" t="s">
-        <v>1109</v>
+        <v>1048</v>
       </c>
       <c r="G154" t="s">
-        <v>1314</v>
+        <v>1195</v>
       </c>
       <c r="H154" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9008,14 +8534,11 @@
       <c r="E155" t="s">
         <v>1020</v>
       </c>
-      <c r="F155" t="s">
-        <v>1021</v>
-      </c>
       <c r="G155" t="s">
-        <v>1315</v>
+        <v>1196</v>
       </c>
       <c r="H155" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9035,13 +8558,13 @@
         <v>1021</v>
       </c>
       <c r="F156" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G156" t="s">
-        <v>1316</v>
+        <v>1197</v>
       </c>
       <c r="H156" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9061,13 +8584,13 @@
         <v>1025</v>
       </c>
       <c r="F157" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="G157" t="s">
-        <v>1317</v>
+        <v>1198</v>
       </c>
       <c r="H157" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9086,14 +8609,11 @@
       <c r="E158" t="s">
         <v>1021</v>
       </c>
-      <c r="F158" t="s">
-        <v>1021</v>
-      </c>
       <c r="G158" t="s">
-        <v>1318</v>
+        <v>1199</v>
       </c>
       <c r="H158" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9112,14 +8632,11 @@
       <c r="E159" t="s">
         <v>1025</v>
       </c>
-      <c r="F159" t="s">
-        <v>1021</v>
-      </c>
       <c r="G159" t="s">
-        <v>1234</v>
+        <v>1115</v>
       </c>
       <c r="H159" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9139,13 +8656,13 @@
         <v>1027</v>
       </c>
       <c r="F160" t="s">
-        <v>1110</v>
+        <v>1042</v>
       </c>
       <c r="G160" t="s">
-        <v>1319</v>
+        <v>1200</v>
       </c>
       <c r="H160" t="s">
-        <v>1541</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9165,13 +8682,13 @@
         <v>1019</v>
       </c>
       <c r="F161" t="s">
-        <v>1111</v>
+        <v>1044</v>
       </c>
       <c r="G161" t="s">
-        <v>1320</v>
+        <v>1201</v>
       </c>
       <c r="H161" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9190,14 +8707,11 @@
       <c r="E162" t="s">
         <v>1019</v>
       </c>
-      <c r="F162" t="s">
-        <v>1021</v>
-      </c>
       <c r="G162" t="s">
-        <v>1321</v>
+        <v>1202</v>
       </c>
       <c r="H162" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9216,14 +8730,11 @@
       <c r="E163" t="s">
         <v>1021</v>
       </c>
-      <c r="F163" t="s">
-        <v>1021</v>
-      </c>
       <c r="G163" t="s">
-        <v>1322</v>
+        <v>1203</v>
       </c>
       <c r="H163" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9243,13 +8754,13 @@
         <v>1026</v>
       </c>
       <c r="F164" t="s">
-        <v>1112</v>
+        <v>1041</v>
       </c>
       <c r="G164" t="s">
-        <v>1323</v>
+        <v>1204</v>
       </c>
       <c r="H164" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9269,13 +8780,13 @@
         <v>1026</v>
       </c>
       <c r="F165" t="s">
-        <v>1113</v>
+        <v>1045</v>
       </c>
       <c r="G165" t="s">
-        <v>1324</v>
+        <v>1205</v>
       </c>
       <c r="H165" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9295,13 +8806,13 @@
         <v>1021</v>
       </c>
       <c r="F166" t="s">
-        <v>1114</v>
+        <v>1041</v>
       </c>
       <c r="G166" t="s">
-        <v>1325</v>
+        <v>1206</v>
       </c>
       <c r="H166" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9321,13 +8832,13 @@
         <v>1026</v>
       </c>
       <c r="F167" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G167" t="s">
-        <v>1326</v>
+        <v>1207</v>
       </c>
       <c r="H167" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9346,14 +8857,11 @@
       <c r="E168" t="s">
         <v>1026</v>
       </c>
-      <c r="F168" t="s">
-        <v>1021</v>
-      </c>
       <c r="G168" t="s">
-        <v>1327</v>
+        <v>1208</v>
       </c>
       <c r="H168" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9373,13 +8881,13 @@
         <v>1028</v>
       </c>
       <c r="F169" t="s">
-        <v>1115</v>
+        <v>1043</v>
       </c>
       <c r="G169" t="s">
-        <v>1328</v>
+        <v>1209</v>
       </c>
       <c r="H169" t="s">
-        <v>1542</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9399,13 +8907,13 @@
         <v>1029</v>
       </c>
       <c r="F170" t="s">
-        <v>1116</v>
+        <v>1042</v>
       </c>
       <c r="G170" t="s">
-        <v>1329</v>
+        <v>1210</v>
       </c>
       <c r="H170" t="s">
-        <v>1522</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9425,13 +8933,13 @@
         <v>1020</v>
       </c>
       <c r="F171" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G171" t="s">
-        <v>1330</v>
+        <v>1211</v>
       </c>
       <c r="H171" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9451,13 +8959,13 @@
         <v>1023</v>
       </c>
       <c r="F172" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G172" t="s">
-        <v>1331</v>
+        <v>1212</v>
       </c>
       <c r="H172" t="s">
-        <v>1521</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9477,13 +8985,13 @@
         <v>1021</v>
       </c>
       <c r="F173" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="G173" t="s">
-        <v>1332</v>
+        <v>1213</v>
       </c>
       <c r="H173" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9503,13 +9011,13 @@
         <v>1023</v>
       </c>
       <c r="F174" t="s">
-        <v>1117</v>
+        <v>1042</v>
       </c>
       <c r="G174" t="s">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="H174" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9529,13 +9037,13 @@
         <v>1021</v>
       </c>
       <c r="F175" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="G175" t="s">
-        <v>1334</v>
+        <v>1215</v>
       </c>
       <c r="H175" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -9555,13 +9063,13 @@
         <v>1020</v>
       </c>
       <c r="F176" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G176" t="s">
-        <v>1335</v>
+        <v>1216</v>
       </c>
       <c r="H176" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9581,13 +9089,13 @@
         <v>1020</v>
       </c>
       <c r="F177" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G177" t="s">
-        <v>1336</v>
+        <v>1217</v>
       </c>
       <c r="H177" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9607,13 +9115,13 @@
         <v>1030</v>
       </c>
       <c r="F178" t="s">
-        <v>1118</v>
+        <v>1043</v>
       </c>
       <c r="G178" t="s">
-        <v>1337</v>
+        <v>1218</v>
       </c>
       <c r="H178" t="s">
-        <v>1517</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -9633,13 +9141,13 @@
         <v>1031</v>
       </c>
       <c r="F179" t="s">
-        <v>1119</v>
+        <v>1046</v>
       </c>
       <c r="G179" t="s">
-        <v>1338</v>
+        <v>1219</v>
       </c>
       <c r="H179" t="s">
-        <v>1543</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -9659,13 +9167,13 @@
         <v>1019</v>
       </c>
       <c r="F180" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="G180" t="s">
-        <v>1339</v>
+        <v>1220</v>
       </c>
       <c r="H180" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9685,13 +9193,13 @@
         <v>1032</v>
       </c>
       <c r="F181" t="s">
-        <v>1120</v>
+        <v>1043</v>
       </c>
       <c r="G181" t="s">
-        <v>1340</v>
+        <v>1221</v>
       </c>
       <c r="H181" t="s">
-        <v>1517</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9711,13 +9219,13 @@
         <v>1019</v>
       </c>
       <c r="F182" t="s">
-        <v>1121</v>
+        <v>1044</v>
       </c>
       <c r="G182" t="s">
-        <v>1341</v>
+        <v>1222</v>
       </c>
       <c r="H182" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -9737,13 +9245,13 @@
         <v>1021</v>
       </c>
       <c r="F183" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G183" t="s">
-        <v>1342</v>
+        <v>1223</v>
       </c>
       <c r="H183" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -9763,13 +9271,13 @@
         <v>1030</v>
       </c>
       <c r="F184" t="s">
-        <v>1122</v>
+        <v>1042</v>
       </c>
       <c r="G184" t="s">
-        <v>1343</v>
+        <v>1224</v>
       </c>
       <c r="H184" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9789,13 +9297,13 @@
         <v>1019</v>
       </c>
       <c r="F185" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G185" t="s">
-        <v>1344</v>
+        <v>1225</v>
       </c>
       <c r="H185" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9815,13 +9323,13 @@
         <v>1021</v>
       </c>
       <c r="F186" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G186" t="s">
-        <v>1345</v>
+        <v>1226</v>
       </c>
       <c r="H186" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9840,14 +9348,11 @@
       <c r="E187" t="s">
         <v>1019</v>
       </c>
-      <c r="F187" t="s">
-        <v>1019</v>
-      </c>
       <c r="G187" t="s">
-        <v>1346</v>
+        <v>1227</v>
       </c>
       <c r="H187" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9866,14 +9371,11 @@
       <c r="E188" t="s">
         <v>1019</v>
       </c>
-      <c r="F188" t="s">
-        <v>1074</v>
-      </c>
       <c r="G188" t="s">
-        <v>1347</v>
+        <v>1228</v>
       </c>
       <c r="H188" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9892,14 +9394,11 @@
       <c r="E189" t="s">
         <v>1033</v>
       </c>
-      <c r="F189" t="s">
-        <v>1021</v>
-      </c>
       <c r="G189" t="s">
-        <v>1348</v>
+        <v>1229</v>
       </c>
       <c r="H189" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9919,13 +9418,13 @@
         <v>1021</v>
       </c>
       <c r="F190" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="G190" t="s">
-        <v>1349</v>
+        <v>1230</v>
       </c>
       <c r="H190" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -9945,13 +9444,13 @@
         <v>1020</v>
       </c>
       <c r="F191" t="s">
-        <v>1114</v>
+        <v>1041</v>
       </c>
       <c r="G191" t="s">
-        <v>1350</v>
+        <v>1231</v>
       </c>
       <c r="H191" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -9971,13 +9470,13 @@
         <v>1034</v>
       </c>
       <c r="F192" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G192" t="s">
-        <v>1351</v>
+        <v>1232</v>
       </c>
       <c r="H192" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -9996,14 +9495,11 @@
       <c r="E193" t="s">
         <v>1019</v>
       </c>
-      <c r="F193" t="s">
-        <v>1019</v>
-      </c>
       <c r="G193" t="s">
-        <v>1352</v>
+        <v>1233</v>
       </c>
       <c r="H193" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10023,13 +9519,13 @@
         <v>1025</v>
       </c>
       <c r="F194" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="G194" t="s">
-        <v>1353</v>
+        <v>1234</v>
       </c>
       <c r="H194" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10048,14 +9544,11 @@
       <c r="E195" t="s">
         <v>1019</v>
       </c>
-      <c r="F195" t="s">
-        <v>1019</v>
-      </c>
       <c r="G195" t="s">
-        <v>1354</v>
+        <v>1235</v>
       </c>
       <c r="H195" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10075,13 +9568,13 @@
         <v>1026</v>
       </c>
       <c r="F196" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
       <c r="G196" t="s">
-        <v>1355</v>
+        <v>1236</v>
       </c>
       <c r="H196" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10101,13 +9594,13 @@
         <v>1021</v>
       </c>
       <c r="F197" t="s">
-        <v>1123</v>
+        <v>1041</v>
       </c>
       <c r="G197" t="s">
-        <v>1356</v>
+        <v>1237</v>
       </c>
       <c r="H197" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10127,13 +9620,13 @@
         <v>1026</v>
       </c>
       <c r="F198" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G198" t="s">
-        <v>1357</v>
+        <v>1238</v>
       </c>
       <c r="H198" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10153,13 +9646,13 @@
         <v>1035</v>
       </c>
       <c r="F199" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="G199" t="s">
-        <v>1358</v>
+        <v>1239</v>
       </c>
       <c r="H199" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10179,13 +9672,13 @@
         <v>1036</v>
       </c>
       <c r="F200" t="s">
-        <v>1082</v>
+        <v>1041</v>
       </c>
       <c r="G200" t="s">
-        <v>1359</v>
+        <v>1240</v>
       </c>
       <c r="H200" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10205,13 +9698,13 @@
         <v>1019</v>
       </c>
       <c r="F201" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G201" t="s">
-        <v>1360</v>
+        <v>1241</v>
       </c>
       <c r="H201" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10230,14 +9723,11 @@
       <c r="E202" t="s">
         <v>1026</v>
       </c>
-      <c r="F202" t="s">
-        <v>1026</v>
-      </c>
       <c r="G202" t="s">
-        <v>1361</v>
+        <v>1242</v>
       </c>
       <c r="H202" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10256,14 +9746,11 @@
       <c r="E203" t="s">
         <v>1026</v>
       </c>
-      <c r="F203" t="s">
-        <v>1048</v>
-      </c>
       <c r="G203" t="s">
-        <v>1362</v>
+        <v>1243</v>
       </c>
       <c r="H203" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10282,14 +9769,11 @@
       <c r="E204" t="s">
         <v>1019</v>
       </c>
-      <c r="F204" t="s">
-        <v>1019</v>
-      </c>
       <c r="G204" t="s">
-        <v>1363</v>
+        <v>1244</v>
       </c>
       <c r="H204" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10309,13 +9793,13 @@
         <v>1019</v>
       </c>
       <c r="F205" t="s">
-        <v>1124</v>
+        <v>1045</v>
       </c>
       <c r="G205" t="s">
-        <v>1364</v>
+        <v>1245</v>
       </c>
       <c r="H205" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10335,10 +9819,10 @@
         <v>1035</v>
       </c>
       <c r="G206" t="s">
-        <v>1365</v>
+        <v>1246</v>
       </c>
       <c r="H206" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10357,14 +9841,11 @@
       <c r="E207" t="s">
         <v>1019</v>
       </c>
-      <c r="F207" t="s">
-        <v>1019</v>
-      </c>
       <c r="G207" t="s">
-        <v>1366</v>
+        <v>1247</v>
       </c>
       <c r="H207" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10384,13 +9865,13 @@
         <v>1026</v>
       </c>
       <c r="F208" t="s">
-        <v>1125</v>
+        <v>1044</v>
       </c>
       <c r="G208" t="s">
-        <v>1367</v>
+        <v>1248</v>
       </c>
       <c r="H208" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10409,14 +9890,11 @@
       <c r="E209" t="s">
         <v>1019</v>
       </c>
-      <c r="F209" t="s">
-        <v>1019</v>
-      </c>
       <c r="G209" t="s">
-        <v>1352</v>
+        <v>1233</v>
       </c>
       <c r="H209" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10435,14 +9913,11 @@
       <c r="E210" t="s">
         <v>1019</v>
       </c>
-      <c r="F210" t="s">
-        <v>1019</v>
-      </c>
       <c r="G210" t="s">
-        <v>1368</v>
+        <v>1249</v>
       </c>
       <c r="H210" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10461,14 +9936,11 @@
       <c r="E211" t="s">
         <v>1019</v>
       </c>
-      <c r="F211" t="s">
-        <v>1019</v>
-      </c>
       <c r="G211" t="s">
-        <v>1369</v>
+        <v>1250</v>
       </c>
       <c r="H211" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10488,13 +9960,13 @@
         <v>1035</v>
       </c>
       <c r="F212" t="s">
-        <v>1126</v>
+        <v>1041</v>
       </c>
       <c r="G212" t="s">
-        <v>1370</v>
+        <v>1251</v>
       </c>
       <c r="H212" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10513,14 +9985,11 @@
       <c r="E213" t="s">
         <v>1019</v>
       </c>
-      <c r="F213" t="s">
-        <v>1026</v>
-      </c>
       <c r="G213" t="s">
-        <v>1371</v>
+        <v>1252</v>
       </c>
       <c r="H213" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10540,13 +10009,13 @@
         <v>1035</v>
       </c>
       <c r="F214" t="s">
-        <v>1127</v>
+        <v>1042</v>
       </c>
       <c r="G214" t="s">
-        <v>1372</v>
+        <v>1253</v>
       </c>
       <c r="H214" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10566,13 +10035,13 @@
         <v>1035</v>
       </c>
       <c r="F215" t="s">
-        <v>1128</v>
+        <v>1043</v>
       </c>
       <c r="G215" t="s">
-        <v>1373</v>
+        <v>1254</v>
       </c>
       <c r="H215" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -10591,14 +10060,11 @@
       <c r="E216" t="s">
         <v>1019</v>
       </c>
-      <c r="F216" t="s">
-        <v>1019</v>
-      </c>
       <c r="G216" t="s">
-        <v>1374</v>
+        <v>1255</v>
       </c>
       <c r="H216" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10618,13 +10084,13 @@
         <v>1035</v>
       </c>
       <c r="F217" t="s">
-        <v>1076</v>
+        <v>1041</v>
       </c>
       <c r="G217" t="s">
-        <v>1375</v>
+        <v>1256</v>
       </c>
       <c r="H217" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10643,14 +10109,11 @@
       <c r="E218" t="s">
         <v>1019</v>
       </c>
-      <c r="F218" t="s">
-        <v>1019</v>
-      </c>
       <c r="G218" t="s">
-        <v>1376</v>
+        <v>1257</v>
       </c>
       <c r="H218" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -10670,13 +10133,13 @@
         <v>1019</v>
       </c>
       <c r="F219" t="s">
-        <v>1082</v>
+        <v>1041</v>
       </c>
       <c r="G219" t="s">
-        <v>1377</v>
+        <v>1258</v>
       </c>
       <c r="H219" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -10696,13 +10159,13 @@
         <v>1026</v>
       </c>
       <c r="F220" t="s">
-        <v>1090</v>
+        <v>1044</v>
       </c>
       <c r="G220" t="s">
-        <v>1378</v>
+        <v>1259</v>
       </c>
       <c r="H220" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -10721,14 +10184,11 @@
       <c r="E221" t="s">
         <v>1026</v>
       </c>
-      <c r="F221" t="s">
-        <v>1026</v>
-      </c>
       <c r="G221" t="s">
-        <v>1379</v>
+        <v>1260</v>
       </c>
       <c r="H221" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -10747,14 +10207,11 @@
       <c r="E222" t="s">
         <v>1026</v>
       </c>
-      <c r="F222" t="s">
-        <v>1026</v>
-      </c>
       <c r="G222" t="s">
-        <v>1380</v>
+        <v>1261</v>
       </c>
       <c r="H222" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -10773,14 +10230,11 @@
       <c r="E223" t="s">
         <v>1036</v>
       </c>
-      <c r="F223" t="s">
-        <v>1026</v>
-      </c>
       <c r="G223" t="s">
-        <v>1381</v>
+        <v>1262</v>
       </c>
       <c r="H223" t="s">
-        <v>1524</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -10800,13 +10254,13 @@
         <v>1019</v>
       </c>
       <c r="F224" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="G224" t="s">
-        <v>1382</v>
+        <v>1263</v>
       </c>
       <c r="H224" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -10826,13 +10280,13 @@
         <v>1019</v>
       </c>
       <c r="F225" t="s">
-        <v>1108</v>
+        <v>1044</v>
       </c>
       <c r="G225" t="s">
-        <v>1383</v>
+        <v>1264</v>
       </c>
       <c r="H225" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -10852,13 +10306,13 @@
         <v>1037</v>
       </c>
       <c r="F226" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G226" t="s">
-        <v>1384</v>
+        <v>1265</v>
       </c>
       <c r="H226" t="s">
-        <v>1524</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -10877,14 +10331,11 @@
       <c r="E227" t="s">
         <v>1026</v>
       </c>
-      <c r="F227" t="s">
-        <v>1026</v>
-      </c>
       <c r="G227" t="s">
-        <v>1385</v>
+        <v>1266</v>
       </c>
       <c r="H227" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -10903,14 +10354,11 @@
       <c r="E228" t="s">
         <v>1036</v>
       </c>
-      <c r="F228" t="s">
-        <v>1026</v>
-      </c>
       <c r="G228" t="s">
-        <v>1386</v>
+        <v>1267</v>
       </c>
       <c r="H228" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10930,13 +10378,13 @@
         <v>1038</v>
       </c>
       <c r="F229" t="s">
-        <v>1129</v>
+        <v>1044</v>
       </c>
       <c r="G229" t="s">
-        <v>1387</v>
+        <v>1268</v>
       </c>
       <c r="H229" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -10955,14 +10403,11 @@
       <c r="E230" t="s">
         <v>1026</v>
       </c>
-      <c r="F230" t="s">
-        <v>1021</v>
-      </c>
       <c r="G230" t="s">
-        <v>1388</v>
+        <v>1269</v>
       </c>
       <c r="H230" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -10981,14 +10426,11 @@
       <c r="E231" t="s">
         <v>1026</v>
       </c>
-      <c r="F231" t="s">
-        <v>1026</v>
-      </c>
       <c r="G231" t="s">
-        <v>1389</v>
+        <v>1270</v>
       </c>
       <c r="H231" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11008,13 +10450,13 @@
         <v>1026</v>
       </c>
       <c r="F232" t="s">
-        <v>1090</v>
+        <v>1044</v>
       </c>
       <c r="G232" t="s">
-        <v>1390</v>
+        <v>1271</v>
       </c>
       <c r="H232" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11033,14 +10475,11 @@
       <c r="E233" t="s">
         <v>1026</v>
       </c>
-      <c r="F233" t="s">
-        <v>1026</v>
-      </c>
       <c r="G233" t="s">
-        <v>1391</v>
+        <v>1272</v>
       </c>
       <c r="H233" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11060,13 +10499,13 @@
         <v>1019</v>
       </c>
       <c r="F234" t="s">
-        <v>1130</v>
+        <v>1043</v>
       </c>
       <c r="G234" t="s">
-        <v>1392</v>
+        <v>1273</v>
       </c>
       <c r="H234" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11086,13 +10525,13 @@
         <v>1019</v>
       </c>
       <c r="F235" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G235" t="s">
-        <v>1393</v>
+        <v>1274</v>
       </c>
       <c r="H235" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11112,13 +10551,13 @@
         <v>1038</v>
       </c>
       <c r="F236" t="s">
-        <v>1131</v>
+        <v>1041</v>
       </c>
       <c r="G236" t="s">
-        <v>1394</v>
+        <v>1275</v>
       </c>
       <c r="H236" t="s">
-        <v>1544</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11138,13 +10577,13 @@
         <v>1038</v>
       </c>
       <c r="F237" t="s">
-        <v>1106</v>
+        <v>1044</v>
       </c>
       <c r="G237" t="s">
-        <v>1395</v>
+        <v>1276</v>
       </c>
       <c r="H237" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11164,13 +10603,13 @@
         <v>1026</v>
       </c>
       <c r="F238" t="s">
-        <v>1103</v>
+        <v>1041</v>
       </c>
       <c r="G238" t="s">
-        <v>1396</v>
+        <v>1277</v>
       </c>
       <c r="H238" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11190,13 +10629,13 @@
         <v>1037</v>
       </c>
       <c r="F239" t="s">
-        <v>1132</v>
+        <v>1041</v>
       </c>
       <c r="G239" t="s">
-        <v>1397</v>
+        <v>1278</v>
       </c>
       <c r="H239" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11216,13 +10655,13 @@
         <v>1039</v>
       </c>
       <c r="F240" t="s">
-        <v>1133</v>
+        <v>1043</v>
       </c>
       <c r="G240" t="s">
-        <v>1398</v>
+        <v>1279</v>
       </c>
       <c r="H240" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11242,13 +10681,13 @@
         <v>1019</v>
       </c>
       <c r="F241" t="s">
-        <v>1108</v>
+        <v>1044</v>
       </c>
       <c r="G241" t="s">
-        <v>1399</v>
+        <v>1280</v>
       </c>
       <c r="H241" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11268,13 +10707,13 @@
         <v>1038</v>
       </c>
       <c r="F242" t="s">
-        <v>1134</v>
+        <v>1043</v>
       </c>
       <c r="G242" t="s">
-        <v>1400</v>
+        <v>1281</v>
       </c>
       <c r="H242" t="s">
-        <v>1539</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11293,14 +10732,11 @@
       <c r="E243" t="s">
         <v>1026</v>
       </c>
-      <c r="F243" t="s">
-        <v>1026</v>
-      </c>
       <c r="G243" t="s">
-        <v>1401</v>
+        <v>1282</v>
       </c>
       <c r="H243" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11319,14 +10755,11 @@
       <c r="E244" t="s">
         <v>1019</v>
       </c>
-      <c r="F244" t="s">
-        <v>1019</v>
-      </c>
       <c r="G244" t="s">
-        <v>1402</v>
+        <v>1283</v>
       </c>
       <c r="H244" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11346,13 +10779,13 @@
         <v>1026</v>
       </c>
       <c r="F245" t="s">
-        <v>1135</v>
+        <v>1041</v>
       </c>
       <c r="G245" t="s">
-        <v>1403</v>
+        <v>1284</v>
       </c>
       <c r="H245" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11371,14 +10804,11 @@
       <c r="E246" t="s">
         <v>1026</v>
       </c>
-      <c r="F246" t="s">
-        <v>1019</v>
-      </c>
       <c r="G246" t="s">
-        <v>1404</v>
+        <v>1285</v>
       </c>
       <c r="H246" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11397,14 +10827,11 @@
       <c r="E247" t="s">
         <v>1019</v>
       </c>
-      <c r="F247" t="s">
-        <v>1019</v>
-      </c>
       <c r="G247" t="s">
-        <v>1405</v>
+        <v>1286</v>
       </c>
       <c r="H247" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11423,14 +10850,11 @@
       <c r="E248" t="s">
         <v>1019</v>
       </c>
-      <c r="F248" t="s">
-        <v>1019</v>
-      </c>
       <c r="G248" t="s">
-        <v>1406</v>
+        <v>1287</v>
       </c>
       <c r="H248" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11449,14 +10873,11 @@
       <c r="E249" t="s">
         <v>1019</v>
       </c>
-      <c r="F249" t="s">
-        <v>990</v>
-      </c>
       <c r="G249" t="s">
-        <v>1407</v>
+        <v>1288</v>
       </c>
       <c r="H249" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11476,13 +10897,13 @@
         <v>1026</v>
       </c>
       <c r="F250" t="s">
-        <v>1136</v>
+        <v>1044</v>
       </c>
       <c r="G250" t="s">
-        <v>1408</v>
+        <v>1289</v>
       </c>
       <c r="H250" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11502,13 +10923,13 @@
         <v>1036</v>
       </c>
       <c r="F251" t="s">
-        <v>1106</v>
+        <v>1044</v>
       </c>
       <c r="G251" t="s">
-        <v>1409</v>
+        <v>1290</v>
       </c>
       <c r="H251" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -11528,13 +10949,13 @@
         <v>1026</v>
       </c>
       <c r="F252" t="s">
-        <v>1137</v>
+        <v>1041</v>
       </c>
       <c r="G252" t="s">
-        <v>1410</v>
+        <v>1291</v>
       </c>
       <c r="H252" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -11554,13 +10975,13 @@
         <v>1026</v>
       </c>
       <c r="F253" t="s">
-        <v>1106</v>
+        <v>1044</v>
       </c>
       <c r="G253" t="s">
-        <v>1411</v>
+        <v>1292</v>
       </c>
       <c r="H253" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11580,13 +11001,13 @@
         <v>1026</v>
       </c>
       <c r="F254" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="G254" t="s">
-        <v>1412</v>
+        <v>1293</v>
       </c>
       <c r="H254" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -11606,13 +11027,13 @@
         <v>1026</v>
       </c>
       <c r="F255" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G255" t="s">
-        <v>1413</v>
+        <v>1294</v>
       </c>
       <c r="H255" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -11631,14 +11052,11 @@
       <c r="E256" t="s">
         <v>1019</v>
       </c>
-      <c r="F256" t="s">
-        <v>1019</v>
-      </c>
       <c r="G256" t="s">
-        <v>1414</v>
+        <v>1295</v>
       </c>
       <c r="H256" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -11657,14 +11075,11 @@
       <c r="E257" t="s">
         <v>1019</v>
       </c>
-      <c r="F257" t="s">
-        <v>1019</v>
-      </c>
       <c r="G257" t="s">
-        <v>1415</v>
+        <v>1296</v>
       </c>
       <c r="H257" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -11683,14 +11098,11 @@
       <c r="E258" t="s">
         <v>1019</v>
       </c>
-      <c r="F258" t="s">
-        <v>1019</v>
-      </c>
       <c r="G258" t="s">
-        <v>1346</v>
+        <v>1227</v>
       </c>
       <c r="H258" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -11709,14 +11121,11 @@
       <c r="E259" t="s">
         <v>1019</v>
       </c>
-      <c r="F259" t="s">
-        <v>1019</v>
-      </c>
       <c r="G259" t="s">
-        <v>1416</v>
+        <v>1297</v>
       </c>
       <c r="H259" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11736,13 +11145,13 @@
         <v>1037</v>
       </c>
       <c r="F260" t="s">
-        <v>1108</v>
+        <v>1044</v>
       </c>
       <c r="G260" t="s">
-        <v>1417</v>
+        <v>1298</v>
       </c>
       <c r="H260" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -11762,13 +11171,13 @@
         <v>1019</v>
       </c>
       <c r="F261" t="s">
-        <v>1138</v>
+        <v>1042</v>
       </c>
       <c r="G261" t="s">
-        <v>1418</v>
+        <v>1299</v>
       </c>
       <c r="H261" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -11788,13 +11197,13 @@
         <v>1036</v>
       </c>
       <c r="F262" t="s">
-        <v>1106</v>
+        <v>1044</v>
       </c>
       <c r="G262" t="s">
-        <v>1419</v>
+        <v>1300</v>
       </c>
       <c r="H262" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -11813,14 +11222,11 @@
       <c r="E263" t="s">
         <v>1019</v>
       </c>
-      <c r="F263" t="s">
-        <v>1021</v>
-      </c>
       <c r="G263" t="s">
-        <v>1420</v>
+        <v>1301</v>
       </c>
       <c r="H263" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -11840,13 +11246,13 @@
         <v>1019</v>
       </c>
       <c r="F264" t="s">
-        <v>1106</v>
+        <v>1044</v>
       </c>
       <c r="G264" t="s">
-        <v>1421</v>
+        <v>1302</v>
       </c>
       <c r="H264" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -11865,14 +11271,11 @@
       <c r="E265" t="s">
         <v>1019</v>
       </c>
-      <c r="F265" t="s">
-        <v>1019</v>
-      </c>
       <c r="G265" t="s">
-        <v>1422</v>
+        <v>1303</v>
       </c>
       <c r="H265" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -11892,13 +11295,13 @@
         <v>1019</v>
       </c>
       <c r="F266" t="s">
-        <v>1139</v>
+        <v>1042</v>
       </c>
       <c r="G266" t="s">
-        <v>1423</v>
+        <v>1304</v>
       </c>
       <c r="H266" t="s">
-        <v>1524</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -11918,13 +11321,13 @@
         <v>1026</v>
       </c>
       <c r="F267" t="s">
-        <v>1140</v>
+        <v>1041</v>
       </c>
       <c r="G267" t="s">
-        <v>1424</v>
+        <v>1305</v>
       </c>
       <c r="H267" t="s">
-        <v>1516</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -11943,14 +11346,11 @@
       <c r="E268" t="s">
         <v>1026</v>
       </c>
-      <c r="F268" t="s">
-        <v>1026</v>
-      </c>
       <c r="G268" t="s">
-        <v>1425</v>
+        <v>1306</v>
       </c>
       <c r="H268" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -11969,14 +11369,11 @@
       <c r="E269" t="s">
         <v>1026</v>
       </c>
-      <c r="F269" t="s">
-        <v>1021</v>
-      </c>
       <c r="G269" t="s">
-        <v>1426</v>
+        <v>1307</v>
       </c>
       <c r="H269" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -11996,13 +11393,13 @@
         <v>1036</v>
       </c>
       <c r="F270" t="s">
-        <v>1141</v>
+        <v>1041</v>
       </c>
       <c r="G270" t="s">
-        <v>1427</v>
+        <v>1308</v>
       </c>
       <c r="H270" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12021,14 +11418,11 @@
       <c r="E271" t="s">
         <v>1019</v>
       </c>
-      <c r="F271" t="s">
-        <v>1019</v>
-      </c>
       <c r="G271" t="s">
-        <v>1428</v>
+        <v>1309</v>
       </c>
       <c r="H271" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12048,13 +11442,13 @@
         <v>1038</v>
       </c>
       <c r="F272" t="s">
-        <v>1142</v>
+        <v>1042</v>
       </c>
       <c r="G272" t="s">
-        <v>1429</v>
+        <v>1310</v>
       </c>
       <c r="H272" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12074,13 +11468,13 @@
         <v>1019</v>
       </c>
       <c r="F273" t="s">
-        <v>1143</v>
+        <v>1041</v>
       </c>
       <c r="G273" t="s">
-        <v>1430</v>
+        <v>1311</v>
       </c>
       <c r="H273" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12100,13 +11494,13 @@
         <v>1019</v>
       </c>
       <c r="F274" t="s">
-        <v>1121</v>
+        <v>1044</v>
       </c>
       <c r="G274" t="s">
-        <v>1431</v>
+        <v>1312</v>
       </c>
       <c r="H274" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12126,13 +11520,13 @@
         <v>1026</v>
       </c>
       <c r="F275" t="s">
-        <v>1104</v>
+        <v>1044</v>
       </c>
       <c r="G275" t="s">
-        <v>1432</v>
+        <v>1313</v>
       </c>
       <c r="H275" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12151,14 +11545,11 @@
       <c r="E276" t="s">
         <v>1019</v>
       </c>
-      <c r="F276" t="s">
-        <v>1026</v>
-      </c>
       <c r="G276" t="s">
-        <v>1433</v>
+        <v>1314</v>
       </c>
       <c r="H276" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12178,13 +11569,13 @@
         <v>1019</v>
       </c>
       <c r="F277" t="s">
-        <v>1144</v>
+        <v>1042</v>
       </c>
       <c r="G277" t="s">
-        <v>1434</v>
+        <v>1315</v>
       </c>
       <c r="H277" t="s">
-        <v>1524</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12204,13 +11595,13 @@
         <v>1019</v>
       </c>
       <c r="F278" t="s">
-        <v>1145</v>
+        <v>1043</v>
       </c>
       <c r="G278" t="s">
-        <v>1435</v>
+        <v>1316</v>
       </c>
       <c r="H278" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12230,13 +11621,13 @@
         <v>1019</v>
       </c>
       <c r="F279" t="s">
-        <v>1108</v>
+        <v>1044</v>
       </c>
       <c r="G279" t="s">
-        <v>1436</v>
+        <v>1317</v>
       </c>
       <c r="H279" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12256,13 +11647,13 @@
         <v>1019</v>
       </c>
       <c r="F280" t="s">
-        <v>1146</v>
+        <v>1041</v>
       </c>
       <c r="G280" t="s">
-        <v>1437</v>
+        <v>1318</v>
       </c>
       <c r="H280" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12282,13 +11673,13 @@
         <v>1019</v>
       </c>
       <c r="F281" t="s">
-        <v>1147</v>
+        <v>1041</v>
       </c>
       <c r="G281" t="s">
-        <v>1438</v>
+        <v>1319</v>
       </c>
       <c r="H281" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12308,13 +11699,13 @@
         <v>1019</v>
       </c>
       <c r="F282" t="s">
-        <v>1129</v>
+        <v>1044</v>
       </c>
       <c r="G282" t="s">
-        <v>1439</v>
+        <v>1320</v>
       </c>
       <c r="H282" t="s">
-        <v>1524</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12333,14 +11724,11 @@
       <c r="E283" t="s">
         <v>1026</v>
       </c>
-      <c r="F283" t="s">
-        <v>1026</v>
-      </c>
       <c r="G283" t="s">
-        <v>1440</v>
+        <v>1321</v>
       </c>
       <c r="H283" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12360,13 +11748,13 @@
         <v>1019</v>
       </c>
       <c r="F284" t="s">
-        <v>1148</v>
+        <v>1043</v>
       </c>
       <c r="G284" t="s">
-        <v>1441</v>
+        <v>1322</v>
       </c>
       <c r="H284" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12386,13 +11774,13 @@
         <v>1019</v>
       </c>
       <c r="F285" t="s">
-        <v>1149</v>
+        <v>1042</v>
       </c>
       <c r="G285" t="s">
-        <v>1442</v>
+        <v>1323</v>
       </c>
       <c r="H285" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12412,13 +11800,13 @@
         <v>1019</v>
       </c>
       <c r="F286" t="s">
-        <v>1150</v>
+        <v>1043</v>
       </c>
       <c r="G286" t="s">
-        <v>1443</v>
+        <v>1324</v>
       </c>
       <c r="H286" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12438,13 +11826,13 @@
         <v>1026</v>
       </c>
       <c r="F287" t="s">
-        <v>1151</v>
+        <v>1041</v>
       </c>
       <c r="G287" t="s">
-        <v>1444</v>
+        <v>1325</v>
       </c>
       <c r="H287" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12464,13 +11852,13 @@
         <v>1040</v>
       </c>
       <c r="F288" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="G288" t="s">
-        <v>1445</v>
+        <v>1326</v>
       </c>
       <c r="H288" t="s">
-        <v>1521</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12490,13 +11878,13 @@
         <v>1019</v>
       </c>
       <c r="F289" t="s">
-        <v>1152</v>
+        <v>1041</v>
       </c>
       <c r="G289" t="s">
-        <v>1446</v>
+        <v>1327</v>
       </c>
       <c r="H289" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12516,13 +11904,13 @@
         <v>1019</v>
       </c>
       <c r="F290" t="s">
-        <v>1089</v>
+        <v>1041</v>
       </c>
       <c r="G290" t="s">
-        <v>1447</v>
+        <v>1328</v>
       </c>
       <c r="H290" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12541,14 +11929,11 @@
       <c r="E291" t="s">
         <v>1035</v>
       </c>
-      <c r="F291" t="s">
-        <v>1021</v>
-      </c>
       <c r="G291" t="s">
-        <v>1448</v>
+        <v>1329</v>
       </c>
       <c r="H291" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12567,14 +11952,11 @@
       <c r="E292" t="s">
         <v>1026</v>
       </c>
-      <c r="F292" t="s">
-        <v>1026</v>
-      </c>
       <c r="G292" t="s">
-        <v>1385</v>
+        <v>1266</v>
       </c>
       <c r="H292" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12594,13 +11976,13 @@
         <v>1019</v>
       </c>
       <c r="F293" t="s">
-        <v>1129</v>
+        <v>1044</v>
       </c>
       <c r="G293" t="s">
-        <v>1449</v>
+        <v>1330</v>
       </c>
       <c r="H293" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -12619,14 +12001,11 @@
       <c r="E294" t="s">
         <v>1019</v>
       </c>
-      <c r="F294" t="s">
-        <v>1019</v>
-      </c>
       <c r="G294" t="s">
-        <v>1369</v>
+        <v>1250</v>
       </c>
       <c r="H294" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -12646,13 +12025,13 @@
         <v>1026</v>
       </c>
       <c r="F295" t="s">
-        <v>1103</v>
+        <v>1041</v>
       </c>
       <c r="G295" t="s">
-        <v>1450</v>
+        <v>1331</v>
       </c>
       <c r="H295" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -12671,14 +12050,11 @@
       <c r="E296" t="s">
         <v>1019</v>
       </c>
-      <c r="F296" t="s">
-        <v>1019</v>
-      </c>
       <c r="G296" t="s">
-        <v>1414</v>
+        <v>1295</v>
       </c>
       <c r="H296" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -12697,14 +12073,11 @@
       <c r="E297" t="s">
         <v>1019</v>
       </c>
-      <c r="F297" t="s">
-        <v>1019</v>
-      </c>
       <c r="G297" t="s">
-        <v>1451</v>
+        <v>1332</v>
       </c>
       <c r="H297" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -12723,14 +12096,11 @@
       <c r="E298" t="s">
         <v>1026</v>
       </c>
-      <c r="F298" t="s">
-        <v>1026</v>
-      </c>
       <c r="G298" t="s">
-        <v>1452</v>
+        <v>1333</v>
       </c>
       <c r="H298" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -12750,13 +12120,13 @@
         <v>1019</v>
       </c>
       <c r="F299" t="s">
-        <v>1153</v>
+        <v>1043</v>
       </c>
       <c r="G299" t="s">
-        <v>1453</v>
+        <v>1334</v>
       </c>
       <c r="H299" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -12776,13 +12146,13 @@
         <v>1019</v>
       </c>
       <c r="F300" t="s">
-        <v>1108</v>
+        <v>1044</v>
       </c>
       <c r="G300" t="s">
-        <v>1454</v>
+        <v>1335</v>
       </c>
       <c r="H300" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -12801,14 +12171,11 @@
       <c r="E301" t="s">
         <v>1019</v>
       </c>
-      <c r="F301" t="s">
-        <v>1019</v>
-      </c>
       <c r="G301" t="s">
-        <v>1455</v>
+        <v>1336</v>
       </c>
       <c r="H301" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -12828,13 +12195,13 @@
         <v>1036</v>
       </c>
       <c r="F302" t="s">
-        <v>1154</v>
+        <v>1042</v>
       </c>
       <c r="G302" t="s">
-        <v>1456</v>
+        <v>1337</v>
       </c>
       <c r="H302" t="s">
-        <v>1529</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -12853,14 +12220,11 @@
       <c r="E303" t="s">
         <v>1026</v>
       </c>
-      <c r="F303" t="s">
-        <v>1026</v>
-      </c>
       <c r="G303" t="s">
-        <v>1457</v>
+        <v>1338</v>
       </c>
       <c r="H303" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -12879,14 +12243,11 @@
       <c r="E304" t="s">
         <v>1026</v>
       </c>
-      <c r="F304" t="s">
-        <v>1021</v>
-      </c>
       <c r="G304" t="s">
-        <v>1458</v>
+        <v>1339</v>
       </c>
       <c r="H304" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -12905,14 +12266,11 @@
       <c r="E305" t="s">
         <v>1026</v>
       </c>
-      <c r="F305" t="s">
-        <v>1026</v>
-      </c>
       <c r="G305" t="s">
-        <v>1459</v>
+        <v>1340</v>
       </c>
       <c r="H305" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -12932,13 +12290,13 @@
         <v>1019</v>
       </c>
       <c r="F306" t="s">
-        <v>1155</v>
+        <v>1044</v>
       </c>
       <c r="G306" t="s">
-        <v>1460</v>
+        <v>1341</v>
       </c>
       <c r="H306" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -12957,14 +12315,11 @@
       <c r="E307" t="s">
         <v>1019</v>
       </c>
-      <c r="F307" t="s">
-        <v>1019</v>
-      </c>
       <c r="G307" t="s">
-        <v>1461</v>
+        <v>1342</v>
       </c>
       <c r="H307" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -12984,13 +12339,13 @@
         <v>1019</v>
       </c>
       <c r="F308" t="s">
-        <v>1099</v>
+        <v>1041</v>
       </c>
       <c r="G308" t="s">
-        <v>1462</v>
+        <v>1343</v>
       </c>
       <c r="H308" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13009,14 +12364,11 @@
       <c r="E309" t="s">
         <v>1019</v>
       </c>
-      <c r="F309" t="s">
-        <v>1019</v>
-      </c>
       <c r="G309" t="s">
-        <v>1369</v>
+        <v>1250</v>
       </c>
       <c r="H309" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13035,14 +12387,11 @@
       <c r="E310" t="s">
         <v>1026</v>
       </c>
-      <c r="F310" t="s">
-        <v>1026</v>
-      </c>
       <c r="G310" t="s">
-        <v>1463</v>
+        <v>1344</v>
       </c>
       <c r="H310" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13061,14 +12410,11 @@
       <c r="E311" t="s">
         <v>1026</v>
       </c>
-      <c r="F311" t="s">
-        <v>1026</v>
-      </c>
       <c r="G311" t="s">
-        <v>1464</v>
+        <v>1345</v>
       </c>
       <c r="H311" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13088,13 +12434,13 @@
         <v>1026</v>
       </c>
       <c r="F312" t="s">
-        <v>1156</v>
+        <v>1044</v>
       </c>
       <c r="G312" t="s">
-        <v>1465</v>
+        <v>1346</v>
       </c>
       <c r="H312" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13114,13 +12460,13 @@
         <v>1037</v>
       </c>
       <c r="F313" t="s">
-        <v>1157</v>
+        <v>1041</v>
       </c>
       <c r="G313" t="s">
-        <v>1466</v>
+        <v>1347</v>
       </c>
       <c r="H313" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13139,14 +12485,11 @@
       <c r="E314" t="s">
         <v>1019</v>
       </c>
-      <c r="F314" t="s">
-        <v>1019</v>
-      </c>
       <c r="G314" t="s">
-        <v>1422</v>
+        <v>1303</v>
       </c>
       <c r="H314" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13165,14 +12508,11 @@
       <c r="E315" t="s">
         <v>1026</v>
       </c>
-      <c r="F315" t="s">
-        <v>1026</v>
-      </c>
       <c r="G315" t="s">
-        <v>1467</v>
+        <v>1348</v>
       </c>
       <c r="H315" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13192,13 +12532,13 @@
         <v>1019</v>
       </c>
       <c r="F316" t="s">
-        <v>1158</v>
+        <v>1048</v>
       </c>
       <c r="G316" t="s">
-        <v>1468</v>
+        <v>1349</v>
       </c>
       <c r="H316" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13218,13 +12558,13 @@
         <v>1026</v>
       </c>
       <c r="F317" t="s">
-        <v>1159</v>
+        <v>1043</v>
       </c>
       <c r="G317" t="s">
-        <v>1469</v>
+        <v>1350</v>
       </c>
       <c r="H317" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13244,13 +12584,13 @@
         <v>1026</v>
       </c>
       <c r="F318" t="s">
-        <v>1160</v>
+        <v>1043</v>
       </c>
       <c r="G318" t="s">
-        <v>1470</v>
+        <v>1351</v>
       </c>
       <c r="H318" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13270,13 +12610,13 @@
         <v>1026</v>
       </c>
       <c r="F319" t="s">
-        <v>1135</v>
+        <v>1044</v>
       </c>
       <c r="G319" t="s">
-        <v>1471</v>
+        <v>1352</v>
       </c>
       <c r="H319" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13295,14 +12635,11 @@
       <c r="E320" t="s">
         <v>1019</v>
       </c>
-      <c r="F320" t="s">
-        <v>1019</v>
-      </c>
       <c r="G320" t="s">
-        <v>1472</v>
+        <v>1353</v>
       </c>
       <c r="H320" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13321,14 +12658,11 @@
       <c r="E321" t="s">
         <v>1026</v>
       </c>
-      <c r="F321" t="s">
-        <v>1026</v>
-      </c>
       <c r="G321" t="s">
-        <v>1473</v>
+        <v>1354</v>
       </c>
       <c r="H321" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13348,13 +12682,13 @@
         <v>1038</v>
       </c>
       <c r="F322" t="s">
-        <v>1161</v>
+        <v>1045</v>
       </c>
       <c r="G322" t="s">
-        <v>1474</v>
+        <v>1355</v>
       </c>
       <c r="H322" t="s">
-        <v>1529</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13374,13 +12708,13 @@
         <v>1038</v>
       </c>
       <c r="F323" t="s">
-        <v>1129</v>
+        <v>1044</v>
       </c>
       <c r="G323" t="s">
-        <v>1475</v>
+        <v>1356</v>
       </c>
       <c r="H323" t="s">
-        <v>1522</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13399,14 +12733,11 @@
       <c r="E324" t="s">
         <v>1019</v>
       </c>
-      <c r="F324" t="s">
-        <v>1026</v>
-      </c>
       <c r="G324" t="s">
-        <v>1476</v>
+        <v>1357</v>
       </c>
       <c r="H324" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13425,14 +12756,11 @@
       <c r="E325" t="s">
         <v>1019</v>
       </c>
-      <c r="F325" t="s">
-        <v>990</v>
-      </c>
       <c r="G325" t="s">
-        <v>1477</v>
+        <v>1358</v>
       </c>
       <c r="H325" t="s">
-        <v>1513</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13451,14 +12779,11 @@
       <c r="E326" t="s">
         <v>1019</v>
       </c>
-      <c r="F326" t="s">
-        <v>1019</v>
-      </c>
       <c r="G326" t="s">
-        <v>1478</v>
+        <v>1359</v>
       </c>
       <c r="H326" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13477,14 +12802,11 @@
       <c r="E327" t="s">
         <v>1035</v>
       </c>
-      <c r="F327" t="s">
-        <v>1026</v>
-      </c>
       <c r="G327" t="s">
-        <v>1479</v>
+        <v>1360</v>
       </c>
       <c r="H327" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13504,13 +12826,13 @@
         <v>1026</v>
       </c>
       <c r="F328" t="s">
-        <v>1162</v>
+        <v>1043</v>
       </c>
       <c r="G328" t="s">
-        <v>1480</v>
+        <v>1361</v>
       </c>
       <c r="H328" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13530,13 +12852,13 @@
         <v>1026</v>
       </c>
       <c r="F329" t="s">
-        <v>1106</v>
+        <v>1044</v>
       </c>
       <c r="G329" t="s">
-        <v>1481</v>
+        <v>1362</v>
       </c>
       <c r="H329" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -13556,13 +12878,13 @@
         <v>1035</v>
       </c>
       <c r="F330" t="s">
-        <v>1135</v>
+        <v>1041</v>
       </c>
       <c r="G330" t="s">
-        <v>1482</v>
+        <v>1363</v>
       </c>
       <c r="H330" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -13581,14 +12903,11 @@
       <c r="E331" t="s">
         <v>1026</v>
       </c>
-      <c r="F331" t="s">
-        <v>1021</v>
-      </c>
       <c r="G331" t="s">
-        <v>1483</v>
+        <v>1364</v>
       </c>
       <c r="H331" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -13607,14 +12926,11 @@
       <c r="E332" t="s">
         <v>1035</v>
       </c>
-      <c r="F332" t="s">
-        <v>1163</v>
-      </c>
       <c r="G332" t="s">
-        <v>1484</v>
+        <v>1365</v>
       </c>
       <c r="H332" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -13634,13 +12950,13 @@
         <v>1035</v>
       </c>
       <c r="F333" t="s">
-        <v>1090</v>
+        <v>1044</v>
       </c>
       <c r="G333" t="s">
-        <v>1485</v>
+        <v>1366</v>
       </c>
       <c r="H333" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -13660,13 +12976,13 @@
         <v>1026</v>
       </c>
       <c r="F334" t="s">
-        <v>1164</v>
+        <v>1043</v>
       </c>
       <c r="G334" t="s">
-        <v>1486</v>
+        <v>1367</v>
       </c>
       <c r="H334" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -13686,13 +13002,13 @@
         <v>1026</v>
       </c>
       <c r="F335" t="s">
-        <v>1090</v>
+        <v>1044</v>
       </c>
       <c r="G335" t="s">
-        <v>1487</v>
+        <v>1368</v>
       </c>
       <c r="H335" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -13712,13 +13028,13 @@
         <v>1026</v>
       </c>
       <c r="F336" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="G336" t="s">
-        <v>1488</v>
+        <v>1369</v>
       </c>
       <c r="H336" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -13737,14 +13053,11 @@
       <c r="E337" t="s">
         <v>1026</v>
       </c>
-      <c r="F337" t="s">
-        <v>1026</v>
-      </c>
       <c r="G337" t="s">
-        <v>1489</v>
+        <v>1370</v>
       </c>
       <c r="H337" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -13763,14 +13076,11 @@
       <c r="E338" t="s">
         <v>1026</v>
       </c>
-      <c r="F338" t="s">
-        <v>1026</v>
-      </c>
       <c r="G338" t="s">
-        <v>1490</v>
+        <v>1371</v>
       </c>
       <c r="H338" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -13790,13 +13100,13 @@
         <v>1026</v>
       </c>
       <c r="F339" t="s">
-        <v>1165</v>
+        <v>1041</v>
       </c>
       <c r="G339" t="s">
-        <v>1491</v>
+        <v>1372</v>
       </c>
       <c r="H339" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -13815,14 +13125,11 @@
       <c r="E340" t="s">
         <v>1026</v>
       </c>
-      <c r="F340" t="s">
-        <v>1026</v>
-      </c>
       <c r="G340" t="s">
-        <v>1492</v>
+        <v>1373</v>
       </c>
       <c r="H340" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -13842,13 +13149,13 @@
         <v>1024</v>
       </c>
       <c r="F341" t="s">
-        <v>1166</v>
+        <v>1043</v>
       </c>
       <c r="G341" t="s">
-        <v>1493</v>
+        <v>1374</v>
       </c>
       <c r="H341" t="s">
-        <v>1512</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -13867,14 +13174,11 @@
       <c r="E342" t="s">
         <v>1026</v>
       </c>
-      <c r="F342" t="s">
-        <v>1056</v>
-      </c>
       <c r="G342" t="s">
-        <v>1494</v>
+        <v>1375</v>
       </c>
       <c r="H342" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -13894,13 +13198,13 @@
         <v>1026</v>
       </c>
       <c r="F343" t="s">
-        <v>1123</v>
+        <v>1044</v>
       </c>
       <c r="G343" t="s">
-        <v>1495</v>
+        <v>1376</v>
       </c>
       <c r="H343" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -13920,13 +13224,13 @@
         <v>1026</v>
       </c>
       <c r="F344" t="s">
-        <v>1102</v>
+        <v>1042</v>
       </c>
       <c r="G344" t="s">
-        <v>1496</v>
+        <v>1377</v>
       </c>
       <c r="H344" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -13946,13 +13250,13 @@
         <v>1026</v>
       </c>
       <c r="F345" t="s">
-        <v>1090</v>
+        <v>1044</v>
       </c>
       <c r="G345" t="s">
-        <v>1497</v>
+        <v>1378</v>
       </c>
       <c r="H345" t="s">
-        <v>1514</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -13971,14 +13275,11 @@
       <c r="E346" t="s">
         <v>1026</v>
       </c>
-      <c r="F346" t="s">
-        <v>1026</v>
-      </c>
       <c r="G346" t="s">
-        <v>1459</v>
+        <v>1340</v>
       </c>
       <c r="H346" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -13998,13 +13299,13 @@
         <v>1026</v>
       </c>
       <c r="F347" t="s">
-        <v>1135</v>
+        <v>1044</v>
       </c>
       <c r="G347" t="s">
-        <v>1498</v>
+        <v>1379</v>
       </c>
       <c r="H347" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14023,14 +13324,11 @@
       <c r="E348" t="s">
         <v>1026</v>
       </c>
-      <c r="F348" t="s">
-        <v>1021</v>
-      </c>
       <c r="G348" t="s">
-        <v>1499</v>
+        <v>1380</v>
       </c>
       <c r="H348" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14050,13 +13348,13 @@
         <v>1026</v>
       </c>
       <c r="F349" t="s">
-        <v>1112</v>
+        <v>1044</v>
       </c>
       <c r="G349" t="s">
-        <v>1500</v>
+        <v>1381</v>
       </c>
       <c r="H349" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14075,14 +13373,11 @@
       <c r="E350" t="s">
         <v>1026</v>
       </c>
-      <c r="F350" t="s">
-        <v>1026</v>
-      </c>
       <c r="G350" t="s">
-        <v>1501</v>
+        <v>1382</v>
       </c>
       <c r="H350" t="s">
-        <v>1511</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14102,13 +13397,13 @@
         <v>1026</v>
       </c>
       <c r="F351" t="s">
-        <v>1103</v>
+        <v>1041</v>
       </c>
       <c r="G351" t="s">
-        <v>1502</v>
+        <v>1383</v>
       </c>
       <c r="H351" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14127,14 +13422,11 @@
       <c r="E352" t="s">
         <v>1026</v>
       </c>
-      <c r="F352" t="s">
-        <v>1021</v>
-      </c>
       <c r="G352" t="s">
-        <v>1503</v>
+        <v>1384</v>
       </c>
       <c r="H352" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14153,14 +13445,11 @@
       <c r="E353" t="s">
         <v>1026</v>
       </c>
-      <c r="F353" t="s">
-        <v>1021</v>
-      </c>
       <c r="G353" t="s">
-        <v>1504</v>
+        <v>1385</v>
       </c>
       <c r="H353" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14180,13 +13469,13 @@
         <v>1026</v>
       </c>
       <c r="F354" t="s">
-        <v>1167</v>
+        <v>1041</v>
       </c>
       <c r="G354" t="s">
-        <v>1505</v>
+        <v>1386</v>
       </c>
       <c r="H354" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14206,13 +13495,13 @@
         <v>1026</v>
       </c>
       <c r="F355" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G355" t="s">
-        <v>1506</v>
+        <v>1387</v>
       </c>
       <c r="H355" t="s">
-        <v>1515</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14231,14 +13520,11 @@
       <c r="E356" t="s">
         <v>1026</v>
       </c>
-      <c r="F356" t="s">
-        <v>1026</v>
-      </c>
       <c r="G356" t="s">
-        <v>1507</v>
+        <v>1388</v>
       </c>
       <c r="H356" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14257,14 +13543,11 @@
       <c r="E357" t="s">
         <v>1026</v>
       </c>
-      <c r="F357" t="s">
-        <v>1021</v>
-      </c>
       <c r="G357" t="s">
-        <v>1508</v>
+        <v>1389</v>
       </c>
       <c r="H357" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14284,13 +13567,13 @@
         <v>1026</v>
       </c>
       <c r="F358" t="s">
-        <v>1076</v>
+        <v>1041</v>
       </c>
       <c r="G358" t="s">
-        <v>1509</v>
+        <v>1390</v>
       </c>
       <c r="H358" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14309,14 +13592,11 @@
       <c r="E359" t="s">
         <v>1026</v>
       </c>
-      <c r="F359" t="s">
-        <v>1026</v>
-      </c>
       <c r="G359" t="s">
-        <v>1510</v>
+        <v>1391</v>
       </c>
       <c r="H359" t="s">
-        <v>1528</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
